--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B91F3DF-F4CA-4CD4-8EF1-38F9E2E482DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0573C5-C7BC-418A-AA55-2EE501BB6317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$E$2363</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="3263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5351" uniqueCount="3269">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -8881,9 +8881,6 @@
     <t>Ngoại hình đẹp đẽ, vui tính, có óc hài hước, thích chuyện vui, cảnh vui, hay gặp sự may mắn.  Là người hay thích đem may mắn đến cho người, mang tiếng cười đến cho mọi người bằng cách luôn vui tươi và hay pha trò.</t>
   </si>
   <si>
-    <t>Bạn ra ngoài hay được gặp may mắn, có người khác giới quý mến và giúp đỡ.</t>
-  </si>
-  <si>
     <t>Là người ưu tư, âu sầu, cho nên thủ Mệnh thì da xanh, mắt có quầng đen, diện mạo buồn tẻ, mặt thiếu khí sắc, mắt kém thần, hay trông xuống, không trông xa.</t>
   </si>
   <si>
@@ -8932,9 +8929,6 @@
     <t>Bạn là người đẹp đẽ, khéo léo về chân tay, tính tình vui vẻ, duyên dáng, có nét thu hút, quyến rũ người khác. Người dễ có da có thịt, béo tốt, đẫy đà. Người ra ngoài hay thích mặc đồ diêm dúa, nhiều màu sắc, hoa hòe.</t>
   </si>
   <si>
-    <t>Ngoại hình là người da trắng, có khiếu ăn mặc, có gu thẩm mỹ cao. Có khả năng hội họa âm nhạc rất tốt. Tính cách là người nhẹ nhàng, thướt tha, ưa tìm cảm xúc bên trong tâm hồn, tình cảm bên trong, không ham vật chất quá nhiều nên tính cách có phần như một người nghệ sỹ.</t>
-  </si>
-  <si>
     <t>Công danh trắc trở, tài lộc không được phong túc và hay mắc tai nạn</t>
   </si>
   <si>
@@ -9869,6 +9863,30 @@
   </si>
   <si>
     <t>Bạn có đảm lược và kiến thức hơn người, có khí phách và giữ vững lập trường, không thỏa hiệp; tài vận rất dễ lên xuống thất thường, thích hợp đầu tư vào những lãnh vực có tính mạo hiểm cao, lợi nhuận cao. Trong tình thế nghịch, bạn có thao tác rất tốt, nhưng phải có manh mối và cơ hội, hơn nữa còn phải có thông tin chính xác. Điều quan trọng là phải biết đủ, thấy được rồi thì dừng; nếu quá tham lợi nhuận cao, dốc túi đánh một trận, một khi thất bại thì khó mà đứng dậy. Đây là nhóm mệnh cách giỏi xông xáo trong các tình cảnh rối ren, trong lúc người ta đầu tư "theo hướng giá lên" thì họ đầu tư "theo hướng giá xuống</t>
+  </si>
+  <si>
+    <t>Thiên Không, Đào Hoa đồng cung tại Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Không, Hồng Loan đồng cung tại Mệnh</t>
+  </si>
+  <si>
+    <t>Người có tâm tu hành, tình duyên thì trắc trở, nhưng công việc lại hanh thông.</t>
+  </si>
+  <si>
+    <t>Tài hoa bạc mệnh, người có tài năng, trực giác, nhanh nhẹn</t>
+  </si>
+  <si>
+    <t>Chủ về sự may mắn, giảm bớt tính chất dâm, nguyệt hoa bừa bãi</t>
+  </si>
+  <si>
+    <t>Bạn ra ngoài hay được gặp may mắn, có người khác giới quý mến và giúp đỡ. Sớm lập gia đình.</t>
+  </si>
+  <si>
+    <t>Ngoại hình là người da trắng, có khiếu ăn mặc, có gu thẩm mỹ cao. Có khả năng hội họa âm nhạc rất tốt. Tính cách là người nhẹ nhàng, thướt tha, ưa tìm cảm xúc bên trong tâm hồn, tình cảm bên trong, không ham vật chất quá nhiều nên tính cách có phần như một người nghệ sỹ. Dễ hai lần cưới.</t>
+  </si>
+  <si>
+    <t>Dễ bị lừa tình hoặc đi lừa tình, mất trinh tiết, chửa hoang</t>
   </si>
 </sst>
 </file>
@@ -10272,10 +10290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:H2363"/>
+  <dimension ref="A2:H2365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1743" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1747" sqref="D1747"/>
+    <sheetView tabSelected="1" topLeftCell="A1825" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1843" sqref="C1843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10361,7 +10379,7 @@
         <v>1151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -10431,7 +10449,7 @@
         <v>1153</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -10454,10 +10472,10 @@
         <v>1803</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -10470,10 +10488,10 @@
         <v>1803</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -10493,10 +10511,10 @@
         <v>888</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -10516,7 +10534,7 @@
         <v>1098</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -10526,7 +10544,7 @@
         <v>1097</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -10606,7 +10624,7 @@
         <v>421</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -10616,7 +10634,7 @@
         <v>425</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -10676,7 +10694,7 @@
         <v>427</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -10696,7 +10714,7 @@
         <v>426</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -10726,7 +10744,7 @@
         <v>404</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -10756,7 +10774,7 @@
         <v>406</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -10776,7 +10794,7 @@
         <v>405</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -10806,7 +10824,7 @@
         <v>439</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -10836,7 +10854,7 @@
         <v>441</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -10856,7 +10874,7 @@
         <v>440</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -10886,7 +10904,7 @@
         <v>397</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -10916,7 +10934,7 @@
         <v>399</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -10936,7 +10954,7 @@
         <v>398</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -10966,7 +10984,7 @@
         <v>455</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -10976,7 +10994,7 @@
         <v>453</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -10996,7 +11014,7 @@
         <v>458</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -11016,7 +11034,7 @@
         <v>457</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -11036,7 +11054,7 @@
         <v>459</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -11046,7 +11064,7 @@
         <v>454</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -11069,7 +11087,7 @@
         <v>418</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -11099,7 +11117,7 @@
         <v>420</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -11119,7 +11137,7 @@
         <v>419</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -11159,7 +11177,7 @@
         <v>446</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -11189,7 +11207,7 @@
         <v>449</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -11209,7 +11227,7 @@
         <v>448</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -11229,7 +11247,7 @@
         <v>450</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -11239,7 +11257,7 @@
         <v>445</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -11259,7 +11277,7 @@
         <v>432</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -11279,7 +11297,7 @@
         <v>494</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -11309,7 +11327,7 @@
         <v>434</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -11329,7 +11347,7 @@
         <v>433</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -11369,7 +11387,7 @@
         <v>464</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -11379,7 +11397,7 @@
         <v>462</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -11399,7 +11417,7 @@
         <v>467</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -11419,7 +11437,7 @@
         <v>466</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -11439,7 +11457,7 @@
         <v>468</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -11469,7 +11487,7 @@
         <v>473</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -11479,7 +11497,7 @@
         <v>471</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -11499,7 +11517,7 @@
         <v>476</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -11519,7 +11537,7 @@
         <v>475</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -11539,7 +11557,7 @@
         <v>477</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -11582,7 +11600,7 @@
         <v>411</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -11592,7 +11610,7 @@
         <v>482</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -11602,7 +11620,7 @@
         <v>480</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -11642,7 +11660,7 @@
         <v>413</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -11652,7 +11670,7 @@
         <v>485</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -11662,7 +11680,7 @@
         <v>1005</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -11682,7 +11700,7 @@
         <v>412</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -11742,7 +11760,7 @@
         <v>481</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -11864,7 +11882,7 @@
         <v>976</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -12014,7 +12032,7 @@
         <v>1209</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -12024,7 +12042,7 @@
         <v>1208</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -12090,7 +12108,7 @@
         <v>1495</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2872</v>
@@ -12103,13 +12121,13 @@
         <v>1336</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>3023</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>3025</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -12290,7 +12308,7 @@
         <v>834</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -12333,7 +12351,7 @@
         <v>812</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -12350,7 +12368,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="B200" t="s">
         <v>2814</v>
@@ -12376,7 +12394,7 @@
         <v>790</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -12419,7 +12437,7 @@
         <v>760</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -12465,7 +12483,7 @@
         <v>805</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -12508,7 +12526,7 @@
         <v>826</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -12564,7 +12582,7 @@
         <v>782</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -12574,7 +12592,7 @@
         <v>768</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -12852,7 +12870,7 @@
         <v>801</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -12895,7 +12913,7 @@
         <v>838</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -12938,7 +12956,7 @@
         <v>816</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -12981,7 +12999,7 @@
         <v>794</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -13024,7 +13042,7 @@
         <v>764</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -13070,7 +13088,7 @@
         <v>809</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -13113,7 +13131,7 @@
         <v>830</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -13169,7 +13187,7 @@
         <v>786</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -13179,7 +13197,7 @@
         <v>772</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -13262,7 +13280,7 @@
         <v>1053</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -13282,7 +13300,7 @@
         <v>994</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -13292,7 +13310,7 @@
         <v>989</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -13302,7 +13320,7 @@
         <v>990</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -13322,7 +13340,7 @@
         <v>992</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -13342,7 +13360,7 @@
         <v>1347</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -13471,7 +13489,7 @@
         <v>861</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -13501,7 +13519,7 @@
         <v>1350</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -14007,7 +14025,7 @@
         <v>873</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -14197,7 +14215,7 @@
         <v>1054</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -14207,13 +14225,13 @@
         <v>1337</v>
       </c>
       <c r="B377" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>2951</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>2952</v>
-      </c>
       <c r="D377" s="2" t="s">
-        <v>2953</v>
+        <v>3267</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -14313,7 +14331,7 @@
         <v>2903</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -14544,7 +14562,7 @@
         <v>890</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -15199,25 +15217,25 @@
         <v>1492</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="D466" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F466" s="2" t="s">
         <v>3124</v>
       </c>
-      <c r="E466" s="2" t="s">
+      <c r="G466" s="2" t="s">
         <v>3125</v>
       </c>
-      <c r="F466" s="2" t="s">
+      <c r="H466" s="2" t="s">
         <v>3126</v>
-      </c>
-      <c r="G466" s="2" t="s">
-        <v>3127</v>
-      </c>
-      <c r="H466" s="2" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -15225,25 +15243,25 @@
         <v>1319</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="D467" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F467" s="2" t="s">
         <v>3124</v>
       </c>
-      <c r="E467" s="2" t="s">
+      <c r="G467" s="2" t="s">
         <v>3125</v>
       </c>
-      <c r="F467" s="2" t="s">
+      <c r="H467" s="2" t="s">
         <v>3126</v>
-      </c>
-      <c r="G467" s="2" t="s">
-        <v>3127</v>
-      </c>
-      <c r="H467" s="2" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -15251,22 +15269,22 @@
         <v>1487</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="C468" s="2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E468" s="2" t="s">
         <v>3129</v>
       </c>
-      <c r="D468" s="2" t="s">
+      <c r="F468" s="2" t="s">
         <v>3130</v>
       </c>
-      <c r="E468" s="2" t="s">
+      <c r="G468" s="2" t="s">
         <v>3131</v>
-      </c>
-      <c r="F468" s="2" t="s">
-        <v>3132</v>
-      </c>
-      <c r="G468" s="2" t="s">
-        <v>3133</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -15274,22 +15292,22 @@
         <v>1486</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="C469" s="2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E469" s="2" t="s">
         <v>3129</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="F469" s="2" t="s">
         <v>3130</v>
       </c>
-      <c r="E469" s="2" t="s">
+      <c r="G469" s="2" t="s">
         <v>3131</v>
-      </c>
-      <c r="F469" s="2" t="s">
-        <v>3132</v>
-      </c>
-      <c r="G469" s="2" t="s">
-        <v>3133</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -15297,19 +15315,19 @@
         <v>1491</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>3119</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>3058</v>
-      </c>
-      <c r="D470" s="2" t="s">
+      <c r="E470" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="F470" s="2" t="s">
         <v>3121</v>
-      </c>
-      <c r="E470" s="2" t="s">
-        <v>3122</v>
-      </c>
-      <c r="F470" s="2" t="s">
-        <v>3123</v>
       </c>
       <c r="G470" s="2"/>
     </row>
@@ -15318,19 +15336,19 @@
         <v>1490</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E471" s="2" t="s">
         <v>3120</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>3057</v>
-      </c>
-      <c r="D471" s="2" t="s">
+      <c r="F471" s="2" t="s">
         <v>3121</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>3122</v>
-      </c>
-      <c r="F471" s="2" t="s">
-        <v>3123</v>
       </c>
       <c r="G471" s="2"/>
     </row>
@@ -15339,19 +15357,19 @@
         <v>1484</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="C472" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>3110</v>
       </c>
-      <c r="D472" s="2" t="s">
+      <c r="E472" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F472" s="2" t="s">
         <v>3112</v>
-      </c>
-      <c r="E472" s="2" t="s">
-        <v>3113</v>
-      </c>
-      <c r="F472" s="2" t="s">
-        <v>3114</v>
       </c>
       <c r="G472" s="2"/>
     </row>
@@ -15360,19 +15378,19 @@
         <v>1485</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="C473" s="2" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E473" s="2" t="s">
         <v>3111</v>
       </c>
-      <c r="D473" s="2" t="s">
+      <c r="F473" s="2" t="s">
         <v>3112</v>
-      </c>
-      <c r="E473" s="2" t="s">
-        <v>3113</v>
-      </c>
-      <c r="F473" s="2" t="s">
-        <v>3114</v>
       </c>
       <c r="G473" s="2"/>
     </row>
@@ -15381,22 +15399,22 @@
         <v>1489</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="D474" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F474" s="2" t="s">
         <v>3115</v>
       </c>
-      <c r="E474" s="2" t="s">
+      <c r="G474" s="2" t="s">
         <v>3116</v>
-      </c>
-      <c r="F474" s="2" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G474" s="2" t="s">
-        <v>3118</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -15404,22 +15422,22 @@
         <v>1488</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>3054</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>3056</v>
-      </c>
       <c r="D475" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F475" s="2" t="s">
         <v>3115</v>
       </c>
-      <c r="E475" s="2" t="s">
+      <c r="G475" s="2" t="s">
         <v>3116</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G475" s="2" t="s">
-        <v>3118</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15450,7 +15468,7 @@
         <v>749</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
@@ -15470,7 +15488,7 @@
         <v>748</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
@@ -15836,7 +15854,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>2677</v>
@@ -16052,7 +16070,7 @@
         <v>2212</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
@@ -16082,7 +16100,7 @@
         <v>2214</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
@@ -16092,7 +16110,7 @@
         <v>2215</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
@@ -16102,7 +16120,7 @@
         <v>2216</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
@@ -16252,7 +16270,7 @@
         <v>2230</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
@@ -16782,7 +16800,7 @@
         <v>2270</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
@@ -16792,7 +16810,7 @@
         <v>2271</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
@@ -16802,7 +16820,7 @@
         <v>2272</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
@@ -16812,7 +16830,7 @@
         <v>2273</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
@@ -16822,7 +16840,7 @@
         <v>2169</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
@@ -16832,7 +16850,7 @@
         <v>2170</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
@@ -16912,7 +16930,7 @@
         <v>2278</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
@@ -16922,7 +16940,7 @@
         <v>2279</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
@@ -16932,7 +16950,7 @@
         <v>2280</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
@@ -16942,7 +16960,7 @@
         <v>2281</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
@@ -16952,7 +16970,7 @@
         <v>2282</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
@@ -16962,7 +16980,7 @@
         <v>2283</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
@@ -16972,7 +16990,7 @@
         <v>2284</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
@@ -16982,7 +17000,7 @@
         <v>2285</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
@@ -16992,7 +17010,7 @@
         <v>2286</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
@@ -17002,7 +17020,7 @@
         <v>2287</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
@@ -17012,7 +17030,7 @@
         <v>2288</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
@@ -17022,7 +17040,7 @@
         <v>2289</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
@@ -17095,7 +17113,7 @@
         <v>612</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
@@ -18750,7 +18768,7 @@
         <v>1369</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
@@ -19695,7 +19713,7 @@
         <v>1425</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="F891" s="2"/>
       <c r="G891" s="2"/>
@@ -19761,7 +19779,7 @@
         <v>955</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="F897" s="2"/>
       <c r="G897" s="2"/>
@@ -19983,7 +20001,7 @@
         <v>1225</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="F918" s="2"/>
       <c r="G918" s="2"/>
@@ -20093,7 +20111,7 @@
         <v>1224</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="F929" s="2"/>
       <c r="G929" s="2"/>
@@ -20391,7 +20409,7 @@
         <v>1872</v>
       </c>
       <c r="C957" s="2" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="F957" s="2"/>
       <c r="G957" s="2"/>
@@ -20493,16 +20511,16 @@
         <v>1467</v>
       </c>
       <c r="B966" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C966" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D966" s="2" t="s">
         <v>3139</v>
       </c>
-      <c r="C966" s="2" t="s">
+      <c r="E966" s="2" t="s">
         <v>3140</v>
-      </c>
-      <c r="D966" s="2" t="s">
-        <v>3141</v>
-      </c>
-      <c r="E966" s="2" t="s">
-        <v>3142</v>
       </c>
       <c r="F966" s="2"/>
       <c r="G966" s="2"/>
@@ -20512,16 +20530,16 @@
         <v>1315</v>
       </c>
       <c r="B967" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C967" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D967" s="2" t="s">
         <v>3139</v>
       </c>
-      <c r="C967" s="2" t="s">
+      <c r="E967" s="2" t="s">
         <v>3140</v>
-      </c>
-      <c r="D967" s="2" t="s">
-        <v>3141</v>
-      </c>
-      <c r="E967" s="2" t="s">
-        <v>3142</v>
       </c>
       <c r="F967" s="2"/>
       <c r="G967" s="2"/>
@@ -20531,19 +20549,19 @@
         <v>1466</v>
       </c>
       <c r="B968" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C968" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D968" s="2" t="s">
         <v>3134</v>
       </c>
-      <c r="C968" s="2" t="s">
+      <c r="E968" s="2" t="s">
         <v>3135</v>
       </c>
-      <c r="D968" s="2" t="s">
+      <c r="F968" s="2" t="s">
         <v>3136</v>
-      </c>
-      <c r="E968" s="2" t="s">
-        <v>3137</v>
-      </c>
-      <c r="F968" s="2" t="s">
-        <v>3138</v>
       </c>
       <c r="G968" s="2"/>
     </row>
@@ -20552,19 +20570,19 @@
         <v>1465</v>
       </c>
       <c r="B969" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C969" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D969" s="2" t="s">
         <v>3134</v>
       </c>
-      <c r="C969" s="2" t="s">
+      <c r="E969" s="2" t="s">
         <v>3135</v>
       </c>
-      <c r="D969" s="2" t="s">
+      <c r="F969" s="2" t="s">
         <v>3136</v>
-      </c>
-      <c r="E969" s="2" t="s">
-        <v>3137</v>
-      </c>
-      <c r="F969" s="2" t="s">
-        <v>3138</v>
       </c>
       <c r="G969" s="2"/>
     </row>
@@ -20573,19 +20591,19 @@
         <v>1469</v>
       </c>
       <c r="B970" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C970" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D970" s="2" t="s">
         <v>3143</v>
       </c>
-      <c r="C970" s="2" t="s">
+      <c r="E970" s="2" t="s">
         <v>3144</v>
       </c>
-      <c r="D970" s="2" t="s">
+      <c r="F970" s="2" t="s">
         <v>3145</v>
-      </c>
-      <c r="E970" s="2" t="s">
-        <v>3146</v>
-      </c>
-      <c r="F970" s="2" t="s">
-        <v>3147</v>
       </c>
       <c r="G970" s="2"/>
     </row>
@@ -20594,19 +20612,19 @@
         <v>1468</v>
       </c>
       <c r="B971" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C971" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D971" s="2" t="s">
         <v>3143</v>
       </c>
-      <c r="C971" s="2" t="s">
+      <c r="E971" s="2" t="s">
         <v>3144</v>
       </c>
-      <c r="D971" s="2" t="s">
+      <c r="F971" s="2" t="s">
         <v>3145</v>
-      </c>
-      <c r="E971" s="2" t="s">
-        <v>3146</v>
-      </c>
-      <c r="F971" s="2" t="s">
-        <v>3147</v>
       </c>
       <c r="G971" s="2"/>
     </row>
@@ -20772,16 +20790,16 @@
     </row>
     <row r="988" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C988" s="2" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D988" s="2" t="s">
         <v>2959</v>
-      </c>
-      <c r="B988" s="2" t="s">
-        <v>2960</v>
-      </c>
-      <c r="C988" s="2" t="s">
-        <v>2962</v>
-      </c>
-      <c r="D988" s="2" t="s">
-        <v>2961</v>
       </c>
       <c r="F988" s="2"/>
       <c r="G988" s="2"/>
@@ -20983,7 +21001,7 @@
         <v>374</v>
       </c>
       <c r="B1007" s="2" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="F1007" s="2"/>
       <c r="G1007" s="2"/>
@@ -20993,7 +21011,7 @@
         <v>373</v>
       </c>
       <c r="B1008" s="2" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="F1008" s="2"/>
       <c r="G1008" s="2"/>
@@ -21023,7 +21041,7 @@
         <v>375</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="F1011" s="2"/>
       <c r="G1011" s="2"/>
@@ -21079,7 +21097,7 @@
         <v>360</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="F1016" s="2"/>
       <c r="G1016" s="2"/>
@@ -21112,7 +21130,7 @@
         <v>369</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="F1019" s="2"/>
       <c r="G1019" s="2"/>
@@ -21122,7 +21140,7 @@
         <v>368</v>
       </c>
       <c r="B1020" s="2" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="F1020" s="2"/>
       <c r="G1020" s="2"/>
@@ -21152,7 +21170,7 @@
         <v>370</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="F1023" s="2"/>
       <c r="G1023" s="2"/>
@@ -21519,7 +21537,7 @@
         <v>744</v>
       </c>
       <c r="B1057" s="7" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="F1057" s="2"/>
       <c r="G1057" s="2"/>
@@ -21529,7 +21547,7 @@
         <v>745</v>
       </c>
       <c r="B1058" s="7" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="F1058" s="2"/>
       <c r="G1058" s="2"/>
@@ -21539,7 +21557,7 @@
         <v>742</v>
       </c>
       <c r="B1059" s="7" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="F1059" s="2"/>
       <c r="G1059" s="2"/>
@@ -21549,7 +21567,7 @@
         <v>743</v>
       </c>
       <c r="B1060" s="7" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="F1060" s="2"/>
       <c r="G1060" s="2"/>
@@ -21634,7 +21652,7 @@
         <v>2314</v>
       </c>
       <c r="C1067" s="2" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="D1067" s="2" t="s">
         <v>2315</v>
@@ -21903,13 +21921,13 @@
         <v>2498</v>
       </c>
       <c r="C1090" s="2" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E1090" s="2" t="s">
         <v>3019</v>
-      </c>
-      <c r="D1090" s="2" t="s">
-        <v>3020</v>
-      </c>
-      <c r="E1090" s="2" t="s">
-        <v>3021</v>
       </c>
       <c r="F1090" s="2"/>
       <c r="G1090" s="2"/>
@@ -21929,13 +21947,13 @@
         <v>1078</v>
       </c>
       <c r="B1092" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1092" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1092" s="2" t="s">
         <v>2999</v>
-      </c>
-      <c r="C1092" s="2" t="s">
-        <v>3000</v>
-      </c>
-      <c r="D1092" s="2" t="s">
-        <v>3001</v>
       </c>
       <c r="F1092" s="2"/>
       <c r="G1092" s="2"/>
@@ -22257,7 +22275,7 @@
         <v>573</v>
       </c>
       <c r="B1123" s="2" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="F1123" s="2"/>
       <c r="G1123" s="2"/>
@@ -22267,7 +22285,7 @@
         <v>579</v>
       </c>
       <c r="B1124" s="2" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="F1124" s="2"/>
       <c r="G1124" s="2"/>
@@ -22327,7 +22345,7 @@
         <v>1438</v>
       </c>
       <c r="B1130" s="2" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="F1130" s="2"/>
       <c r="G1130" s="2"/>
@@ -22337,7 +22355,7 @@
         <v>1439</v>
       </c>
       <c r="B1131" s="2" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="F1131" s="2"/>
       <c r="G1131" s="2"/>
@@ -22347,7 +22365,7 @@
         <v>1440</v>
       </c>
       <c r="B1132" s="2" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="F1132" s="2"/>
       <c r="G1132" s="2"/>
@@ -22357,7 +22375,7 @@
         <v>1437</v>
       </c>
       <c r="B1133" s="2" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="F1133" s="2"/>
       <c r="G1133" s="2"/>
@@ -22993,7 +23011,7 @@
         <v>1041</v>
       </c>
       <c r="B1193" s="2" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="F1193" s="2"/>
       <c r="G1193" s="2"/>
@@ -23003,7 +23021,7 @@
         <v>1039</v>
       </c>
       <c r="B1194" s="2" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="F1194" s="2"/>
       <c r="G1194" s="2"/>
@@ -23053,19 +23071,19 @@
         <v>1463</v>
       </c>
       <c r="B1199" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C1199" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D1199" s="2" t="s">
         <v>3153</v>
       </c>
-      <c r="C1199" s="2" t="s">
+      <c r="E1199" s="2" t="s">
         <v>3154</v>
       </c>
-      <c r="D1199" s="2" t="s">
+      <c r="F1199" s="2" t="s">
         <v>3155</v>
-      </c>
-      <c r="E1199" s="2" t="s">
-        <v>3156</v>
-      </c>
-      <c r="F1199" s="2" t="s">
-        <v>3157</v>
       </c>
       <c r="G1199" s="2"/>
     </row>
@@ -23074,19 +23092,19 @@
         <v>1462</v>
       </c>
       <c r="B1200" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C1200" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D1200" s="2" t="s">
         <v>3153</v>
       </c>
-      <c r="C1200" s="2" t="s">
+      <c r="E1200" s="2" t="s">
         <v>3154</v>
       </c>
-      <c r="D1200" s="2" t="s">
+      <c r="F1200" s="2" t="s">
         <v>3155</v>
-      </c>
-      <c r="E1200" s="2" t="s">
-        <v>3156</v>
-      </c>
-      <c r="F1200" s="2" t="s">
-        <v>3157</v>
       </c>
       <c r="G1200" s="2"/>
     </row>
@@ -23098,19 +23116,19 @@
         <v>2321</v>
       </c>
       <c r="C1201" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E1201" s="2" t="s">
         <v>3148</v>
       </c>
-      <c r="D1201" s="2" t="s">
+      <c r="F1201" s="2" t="s">
         <v>3149</v>
       </c>
-      <c r="E1201" s="2" t="s">
+      <c r="G1201" s="2" t="s">
         <v>3150</v>
-      </c>
-      <c r="F1201" s="2" t="s">
-        <v>3151</v>
-      </c>
-      <c r="G1201" s="2" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="1202" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -23121,19 +23139,19 @@
         <v>2321</v>
       </c>
       <c r="C1202" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E1202" s="2" t="s">
         <v>3148</v>
       </c>
-      <c r="D1202" s="2" t="s">
+      <c r="F1202" s="2" t="s">
         <v>3149</v>
       </c>
-      <c r="E1202" s="2" t="s">
+      <c r="G1202" s="2" t="s">
         <v>3150</v>
-      </c>
-      <c r="F1202" s="2" t="s">
-        <v>3151</v>
-      </c>
-      <c r="G1202" s="2" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="1203" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -23241,16 +23259,16 @@
         <v>1464</v>
       </c>
       <c r="B1213" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1213" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1213" s="2" t="s">
         <v>3158</v>
       </c>
-      <c r="C1213" s="2" t="s">
+      <c r="E1213" s="2" t="s">
         <v>3159</v>
-      </c>
-      <c r="D1213" s="2" t="s">
-        <v>3160</v>
-      </c>
-      <c r="E1213" s="2" t="s">
-        <v>3161</v>
       </c>
       <c r="F1213" s="2"/>
       <c r="G1213" s="2"/>
@@ -23260,16 +23278,16 @@
         <v>1317</v>
       </c>
       <c r="B1214" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1214" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1214" s="2" t="s">
         <v>3158</v>
       </c>
-      <c r="C1214" s="2" t="s">
+      <c r="E1214" s="2" t="s">
         <v>3159</v>
-      </c>
-      <c r="D1214" s="2" t="s">
-        <v>3160</v>
-      </c>
-      <c r="E1214" s="2" t="s">
-        <v>3161</v>
       </c>
       <c r="F1214" s="2"/>
       <c r="G1214" s="2"/>
@@ -23289,16 +23307,16 @@
         <v>1339</v>
       </c>
       <c r="B1216" s="2" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="C1216" s="2" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D1216" s="2" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="E1216" s="2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="F1216" s="2"/>
       <c r="G1216" s="2"/>
@@ -24069,22 +24087,22 @@
         <v>1481</v>
       </c>
       <c r="B1285" s="2" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="C1285" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1285" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E1285" s="2" t="s">
         <v>3166</v>
       </c>
-      <c r="D1285" s="2" t="s">
+      <c r="F1285" s="2" t="s">
         <v>3167</v>
       </c>
-      <c r="E1285" s="2" t="s">
+      <c r="G1285" s="2" t="s">
         <v>3168</v>
-      </c>
-      <c r="F1285" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="G1285" s="2" t="s">
-        <v>3170</v>
       </c>
     </row>
     <row r="1286" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -24092,22 +24110,22 @@
         <v>1480</v>
       </c>
       <c r="B1286" s="2" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="C1286" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1286" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E1286" s="2" t="s">
         <v>3166</v>
       </c>
-      <c r="D1286" s="2" t="s">
+      <c r="F1286" s="2" t="s">
         <v>3167</v>
       </c>
-      <c r="E1286" s="2" t="s">
+      <c r="G1286" s="2" t="s">
         <v>3168</v>
-      </c>
-      <c r="F1286" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="G1286" s="2" t="s">
-        <v>3170</v>
       </c>
     </row>
     <row r="1287" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -24115,16 +24133,16 @@
         <v>1320</v>
       </c>
       <c r="B1287" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1287" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1287" s="2" t="s">
         <v>3162</v>
       </c>
-      <c r="C1287" s="2" t="s">
+      <c r="E1287" s="2" t="s">
         <v>3163</v>
-      </c>
-      <c r="D1287" s="2" t="s">
-        <v>3164</v>
-      </c>
-      <c r="E1287" s="2" t="s">
-        <v>3165</v>
       </c>
       <c r="F1287" s="2"/>
       <c r="G1287" s="2"/>
@@ -24134,16 +24152,16 @@
         <v>1479</v>
       </c>
       <c r="B1288" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1288" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1288" s="2" t="s">
         <v>3162</v>
       </c>
-      <c r="C1288" s="2" t="s">
+      <c r="E1288" s="2" t="s">
         <v>3163</v>
-      </c>
-      <c r="D1288" s="2" t="s">
-        <v>3164</v>
-      </c>
-      <c r="E1288" s="2" t="s">
-        <v>3165</v>
       </c>
       <c r="F1288" s="2"/>
       <c r="G1288" s="2"/>
@@ -24153,22 +24171,22 @@
         <v>1482</v>
       </c>
       <c r="B1289" s="2" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="C1289" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1289" s="2" t="s">
         <v>3171</v>
       </c>
-      <c r="D1289" s="2" t="s">
+      <c r="F1289" s="2" t="s">
         <v>3172</v>
       </c>
-      <c r="E1289" s="2" t="s">
+      <c r="G1289" s="2" t="s">
         <v>3173</v>
-      </c>
-      <c r="F1289" s="2" t="s">
-        <v>3174</v>
-      </c>
-      <c r="G1289" s="2" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="1290" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -24176,22 +24194,22 @@
         <v>1483</v>
       </c>
       <c r="B1290" s="2" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="C1290" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1290" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1290" s="2" t="s">
         <v>3171</v>
       </c>
-      <c r="D1290" s="2" t="s">
+      <c r="F1290" s="2" t="s">
         <v>3172</v>
       </c>
-      <c r="E1290" s="2" t="s">
+      <c r="G1290" s="2" t="s">
         <v>3173</v>
-      </c>
-      <c r="F1290" s="2" t="s">
-        <v>3174</v>
-      </c>
-      <c r="G1290" s="2" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="1291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -24199,7 +24217,7 @@
         <v>1342</v>
       </c>
       <c r="B1291" s="2" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="F1291" s="2"/>
       <c r="G1291" s="2"/>
@@ -24232,7 +24250,7 @@
         <v>1187</v>
       </c>
       <c r="B1294" s="2" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="F1294" s="2"/>
       <c r="G1294" s="2"/>
@@ -24242,20 +24260,20 @@
         <v>1185</v>
       </c>
       <c r="B1295" s="2" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="F1295" s="2"/>
       <c r="G1295" s="2"/>
     </row>
     <row r="1296" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1296" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B1296" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C1296" s="2" t="s">
         <v>2965</v>
-      </c>
-      <c r="B1296" s="2" t="s">
-        <v>2966</v>
-      </c>
-      <c r="C1296" s="2" t="s">
-        <v>2967</v>
       </c>
       <c r="F1296" s="2"/>
       <c r="G1296" s="2"/>
@@ -24265,7 +24283,7 @@
         <v>1194</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F1297" s="2"/>
       <c r="G1297" s="2"/>
@@ -24275,7 +24293,7 @@
         <v>1204</v>
       </c>
       <c r="B1298" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F1298" s="2"/>
       <c r="G1298" s="2"/>
@@ -24285,7 +24303,7 @@
         <v>1205</v>
       </c>
       <c r="B1299" s="2" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="F1299" s="2"/>
       <c r="G1299" s="2"/>
@@ -24295,7 +24313,7 @@
         <v>1174</v>
       </c>
       <c r="B1300" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1300" s="2"/>
       <c r="G1300" s="2"/>
@@ -24305,7 +24323,7 @@
         <v>1175</v>
       </c>
       <c r="B1301" s="2" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="F1301" s="2"/>
       <c r="G1301" s="2"/>
@@ -24315,7 +24333,7 @@
         <v>1197</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F1302" s="2"/>
       <c r="G1302" s="2"/>
@@ -24325,7 +24343,7 @@
         <v>1172</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1303" s="2"/>
       <c r="G1303" s="2"/>
@@ -24335,7 +24353,7 @@
         <v>1173</v>
       </c>
       <c r="B1304" s="2" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="F1304" s="2"/>
       <c r="G1304" s="2"/>
@@ -24345,7 +24363,7 @@
         <v>1178</v>
       </c>
       <c r="B1305" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1305" s="2"/>
       <c r="G1305" s="2"/>
@@ -24355,7 +24373,7 @@
         <v>1179</v>
       </c>
       <c r="B1306" s="2" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="F1306" s="2"/>
       <c r="G1306" s="2"/>
@@ -24365,7 +24383,7 @@
         <v>1170</v>
       </c>
       <c r="B1307" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1307" s="2"/>
       <c r="G1307" s="2"/>
@@ -24375,7 +24393,7 @@
         <v>1171</v>
       </c>
       <c r="B1308" s="2" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="F1308" s="2"/>
       <c r="G1308" s="2"/>
@@ -24395,7 +24413,7 @@
         <v>1176</v>
       </c>
       <c r="B1310" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1310" s="2"/>
       <c r="G1310" s="2"/>
@@ -24405,7 +24423,7 @@
         <v>1177</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="F1311" s="2"/>
       <c r="G1311" s="2"/>
@@ -24445,7 +24463,7 @@
         <v>1198</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F1315" s="2"/>
       <c r="G1315" s="2"/>
@@ -24455,7 +24473,7 @@
         <v>1199</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F1316" s="2"/>
       <c r="G1316" s="2"/>
@@ -24465,7 +24483,7 @@
         <v>1168</v>
       </c>
       <c r="B1317" s="2" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="F1317" s="2"/>
       <c r="G1317" s="2"/>
@@ -24521,7 +24539,7 @@
         <v>2936</v>
       </c>
       <c r="C1322" s="2" t="s">
-        <v>2937</v>
+        <v>3266</v>
       </c>
       <c r="F1322" s="2"/>
       <c r="G1322" s="2"/>
@@ -24531,7 +24549,7 @@
         <v>1183</v>
       </c>
       <c r="B1323" s="2" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="F1323" s="2"/>
       <c r="G1323" s="2"/>
@@ -24541,7 +24559,7 @@
         <v>1181</v>
       </c>
       <c r="B1324" s="2" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="F1324" s="2"/>
       <c r="G1324" s="2"/>
@@ -24551,7 +24569,7 @@
         <v>1188</v>
       </c>
       <c r="B1325" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F1325" s="2"/>
       <c r="G1325" s="2"/>
@@ -24581,7 +24599,7 @@
         <v>1162</v>
       </c>
       <c r="B1328" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1328" s="2"/>
       <c r="G1328" s="2"/>
@@ -24611,7 +24629,7 @@
         <v>1160</v>
       </c>
       <c r="B1331" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1331" s="2"/>
       <c r="G1331" s="2"/>
@@ -24631,7 +24649,7 @@
         <v>1166</v>
       </c>
       <c r="B1333" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="F1333" s="2"/>
       <c r="G1333" s="2"/>
@@ -24651,7 +24669,7 @@
         <v>1158</v>
       </c>
       <c r="B1335" s="2" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="F1335" s="2"/>
       <c r="G1335" s="2"/>
@@ -24701,7 +24719,7 @@
         <v>1189</v>
       </c>
       <c r="B1340" s="2" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="F1340" s="2"/>
       <c r="G1340" s="2"/>
@@ -24751,7 +24769,7 @@
         <v>1156</v>
       </c>
       <c r="B1345" s="2" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="F1345" s="2"/>
       <c r="G1345" s="2"/>
@@ -24791,10 +24809,10 @@
         <v>889</v>
       </c>
       <c r="B1349" s="2" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1349" s="2" t="s">
         <v>2938</v>
-      </c>
-      <c r="C1349" s="2" t="s">
-        <v>2939</v>
       </c>
       <c r="F1349" s="2"/>
       <c r="G1349" s="2"/>
@@ -24884,7 +24902,7 @@
         <v>1355</v>
       </c>
       <c r="B1358" s="2" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="F1358" s="2"/>
       <c r="G1358" s="2"/>
@@ -24894,7 +24912,7 @@
         <v>1346</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="F1359" s="2"/>
       <c r="G1359" s="2"/>
@@ -24904,7 +24922,7 @@
         <v>1247</v>
       </c>
       <c r="B1360" s="2" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="F1360" s="2"/>
       <c r="G1360" s="2"/>
@@ -25043,7 +25061,7 @@
         <v>1253</v>
       </c>
       <c r="B1373" s="2" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="F1373" s="2"/>
       <c r="G1373" s="2"/>
@@ -25162,7 +25180,7 @@
         <v>565</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="F1384" s="2"/>
       <c r="G1384" s="2"/>
@@ -25420,7 +25438,7 @@
         <v>1335</v>
       </c>
       <c r="B1408" s="2" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="F1408" s="2"/>
       <c r="G1408" s="2"/>
@@ -25634,7 +25652,7 @@
         <v>1345</v>
       </c>
       <c r="B1427" s="2" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="F1427" s="2"/>
       <c r="G1427" s="2"/>
@@ -25644,7 +25662,7 @@
         <v>1344</v>
       </c>
       <c r="B1428" s="2" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="F1428" s="2"/>
       <c r="G1428" s="2"/>
@@ -25654,7 +25672,7 @@
         <v>1366</v>
       </c>
       <c r="B1429" s="2" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="F1429" s="2"/>
       <c r="G1429" s="2"/>
@@ -25724,7 +25742,7 @@
         <v>526</v>
       </c>
       <c r="B1436" s="2" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="F1436" s="2"/>
       <c r="G1436" s="2"/>
@@ -25774,7 +25792,7 @@
         <v>523</v>
       </c>
       <c r="B1441" s="2" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="F1441" s="2"/>
       <c r="G1441" s="2"/>
@@ -26264,7 +26282,7 @@
         <v>1327</v>
       </c>
       <c r="B1490" s="2" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="F1490" s="2"/>
       <c r="G1490" s="2"/>
@@ -26274,7 +26292,7 @@
         <v>1340</v>
       </c>
       <c r="B1491" s="2" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="F1491" s="2"/>
       <c r="G1491" s="2"/>
@@ -26284,7 +26302,7 @@
         <v>1363</v>
       </c>
       <c r="B1492" s="2" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="F1492" s="2"/>
       <c r="G1492" s="2"/>
@@ -26294,7 +26312,7 @@
         <v>1362</v>
       </c>
       <c r="B1493" s="2" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="F1493" s="2"/>
       <c r="G1493" s="2"/>
@@ -26304,7 +26322,7 @@
         <v>1211</v>
       </c>
       <c r="B1494" s="2" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="F1494" s="2"/>
       <c r="G1494" s="2"/>
@@ -26314,7 +26332,7 @@
         <v>1210</v>
       </c>
       <c r="B1495" s="2" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="F1495" s="2"/>
       <c r="G1495" s="2"/>
@@ -26370,7 +26388,7 @@
         <v>1496</v>
       </c>
       <c r="B1500" s="2" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="C1500" s="2" t="s">
         <v>2872</v>
@@ -26440,7 +26458,7 @@
     </row>
     <row r="1507" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1507" s="2" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="B1507" s="2" t="s">
         <v>1808</v>
@@ -26450,7 +26468,7 @@
     </row>
     <row r="1508" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1508" s="2" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="B1508" s="2" t="s">
         <v>1808</v>
@@ -26460,7 +26478,7 @@
     </row>
     <row r="1509" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1509" s="2" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="B1509" s="2" t="s">
         <v>1808</v>
@@ -26476,7 +26494,7 @@
         <v>2334</v>
       </c>
       <c r="C1510" s="2" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="F1510" s="2"/>
       <c r="G1510" s="2"/>
@@ -26486,7 +26504,7 @@
         <v>60</v>
       </c>
       <c r="B1511" s="2" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="F1511" s="2"/>
       <c r="G1511" s="2"/>
@@ -27048,25 +27066,25 @@
         <v>1449</v>
       </c>
       <c r="B1557" s="2" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C1557" s="2" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D1557" s="2" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E1557" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F1557" s="2" t="s">
         <v>3077</v>
       </c>
-      <c r="E1557" s="2" t="s">
+      <c r="G1557" s="2" t="s">
         <v>3078</v>
       </c>
-      <c r="F1557" s="2" t="s">
-        <v>3079</v>
-      </c>
-      <c r="G1557" s="2" t="s">
+      <c r="H1557" s="2" t="s">
         <v>3080</v>
-      </c>
-      <c r="H1557" s="2" t="s">
-        <v>3082</v>
       </c>
     </row>
     <row r="1558" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -27074,25 +27092,25 @@
         <v>1448</v>
       </c>
       <c r="B1558" s="2" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C1558" s="2" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D1558" s="2" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E1558" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F1558" s="2" t="s">
         <v>3077</v>
       </c>
-      <c r="E1558" s="2" t="s">
+      <c r="G1558" s="2" t="s">
         <v>3078</v>
       </c>
-      <c r="F1558" s="2" t="s">
+      <c r="H1558" s="2" t="s">
         <v>3079</v>
-      </c>
-      <c r="G1558" s="2" t="s">
-        <v>3080</v>
-      </c>
-      <c r="H1558" s="2" t="s">
-        <v>3081</v>
       </c>
     </row>
     <row r="1559" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -27103,16 +27121,16 @@
         <v>2332</v>
       </c>
       <c r="C1559" s="2" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="D1559" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E1559" s="2" t="s">
         <v>3084</v>
       </c>
-      <c r="E1559" s="2" t="s">
-        <v>3086</v>
-      </c>
       <c r="F1559" s="2" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="G1559" s="2"/>
     </row>
@@ -27124,16 +27142,16 @@
         <v>2332</v>
       </c>
       <c r="C1560" s="2" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D1560" s="2" t="s">
         <v>3083</v>
       </c>
-      <c r="D1560" s="2" t="s">
+      <c r="E1560" s="2" t="s">
+        <v>3084</v>
+      </c>
+      <c r="F1560" s="2" t="s">
         <v>3085</v>
-      </c>
-      <c r="E1560" s="2" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F1560" s="2" t="s">
-        <v>3087</v>
       </c>
       <c r="G1560" s="2"/>
     </row>
@@ -27142,25 +27160,25 @@
         <v>1318</v>
       </c>
       <c r="B1561" s="2" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="C1561" s="2" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="D1561" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E1561" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F1561" s="2" t="s">
         <v>3071</v>
       </c>
-      <c r="E1561" s="2" t="s">
+      <c r="G1561" s="2" t="s">
         <v>3072</v>
       </c>
-      <c r="F1561" s="2" t="s">
+      <c r="H1561" s="2" t="s">
         <v>3073</v>
-      </c>
-      <c r="G1561" s="2" t="s">
-        <v>3074</v>
-      </c>
-      <c r="H1561" s="2" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="1562" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -27168,25 +27186,25 @@
         <v>1447</v>
       </c>
       <c r="B1562" s="2" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="C1562" s="2" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="D1562" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E1562" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="F1562" s="2" t="s">
         <v>3071</v>
       </c>
-      <c r="E1562" s="2" t="s">
-        <v>3076</v>
-      </c>
-      <c r="F1562" s="2" t="s">
+      <c r="G1562" s="2" t="s">
+        <v>3072</v>
+      </c>
+      <c r="H1562" s="2" t="s">
         <v>3073</v>
-      </c>
-      <c r="G1562" s="2" t="s">
-        <v>3074</v>
-      </c>
-      <c r="H1562" s="2" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="1563" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27214,19 +27232,19 @@
         <v>1445</v>
       </c>
       <c r="B1565" s="2" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C1565" s="2" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="D1565" s="2" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="E1565" s="2" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="F1565" s="2" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="G1565" s="2"/>
     </row>
@@ -27235,19 +27253,19 @@
         <v>1446</v>
       </c>
       <c r="B1566" s="2" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C1566" s="2" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="D1566" s="2" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="E1566" s="2" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="F1566" s="2" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="G1566" s="2"/>
     </row>
@@ -27286,7 +27304,7 @@
         <v>1502</v>
       </c>
       <c r="B1570" s="2" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="F1570" s="2"/>
       <c r="G1570" s="2"/>
@@ -27296,25 +27314,25 @@
         <v>70</v>
       </c>
       <c r="B1571" s="2" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1571" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1571" s="2" t="s">
         <v>2991</v>
       </c>
-      <c r="C1571" s="2" t="s">
+      <c r="E1571" s="2" t="s">
         <v>2992</v>
       </c>
-      <c r="D1571" s="2" t="s">
+      <c r="F1571" s="2" t="s">
         <v>2993</v>
-      </c>
-      <c r="E1571" s="2" t="s">
-        <v>2994</v>
-      </c>
-      <c r="F1571" s="2" t="s">
-        <v>2995</v>
       </c>
       <c r="G1571" s="2" t="s">
         <v>2594</v>
       </c>
       <c r="H1571" s="2" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1572" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -27322,7 +27340,7 @@
         <v>72</v>
       </c>
       <c r="B1572" s="2" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="C1572" s="2" t="s">
         <v>1925</v>
@@ -27335,7 +27353,7 @@
         <v>71</v>
       </c>
       <c r="B1573" s="2" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="C1573" s="2" t="s">
         <v>2339</v>
@@ -27454,7 +27472,7 @@
         <v>1302</v>
       </c>
       <c r="B1584" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F1584" s="2"/>
       <c r="G1584" s="2"/>
@@ -27464,7 +27482,7 @@
         <v>1290</v>
       </c>
       <c r="B1585" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F1585" s="2"/>
       <c r="G1585" s="2"/>
@@ -27474,7 +27492,7 @@
         <v>1284</v>
       </c>
       <c r="B1586" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F1586" s="2"/>
       <c r="G1586" s="2"/>
@@ -27484,7 +27502,7 @@
         <v>1272</v>
       </c>
       <c r="B1587" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F1587" s="2"/>
       <c r="G1587" s="2"/>
@@ -27494,7 +27512,7 @@
         <v>1278</v>
       </c>
       <c r="B1588" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F1588" s="2"/>
       <c r="G1588" s="2"/>
@@ -27504,7 +27522,7 @@
         <v>1296</v>
       </c>
       <c r="B1589" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F1589" s="2"/>
       <c r="G1589" s="2"/>
@@ -27584,7 +27602,7 @@
         <v>670</v>
       </c>
       <c r="B1597" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1597" s="2"/>
       <c r="G1597" s="2"/>
@@ -27614,7 +27632,7 @@
         <v>658</v>
       </c>
       <c r="B1600" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1600" s="2"/>
       <c r="G1600" s="2"/>
@@ -27644,7 +27662,7 @@
         <v>652</v>
       </c>
       <c r="B1603" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1603" s="2"/>
       <c r="G1603" s="2"/>
@@ -27674,7 +27692,7 @@
         <v>640</v>
       </c>
       <c r="B1606" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1606" s="2"/>
       <c r="G1606" s="2"/>
@@ -27704,7 +27722,7 @@
         <v>646</v>
       </c>
       <c r="B1609" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1609" s="2"/>
       <c r="G1609" s="2"/>
@@ -27734,7 +27752,7 @@
         <v>664</v>
       </c>
       <c r="B1612" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1612" s="2"/>
       <c r="G1612" s="2"/>
@@ -27757,13 +27775,13 @@
         <v>2593</v>
       </c>
       <c r="C1614" s="2" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D1614" s="2" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E1614" s="2" t="s">
         <v>3012</v>
-      </c>
-      <c r="D1614" s="2" t="s">
-        <v>3013</v>
-      </c>
-      <c r="E1614" s="2" t="s">
-        <v>3014</v>
       </c>
       <c r="F1614" s="2"/>
       <c r="G1614" s="2"/>
@@ -27993,7 +28011,7 @@
         <v>634</v>
       </c>
       <c r="B1637" s="2" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="F1637" s="2"/>
       <c r="G1637" s="2"/>
@@ -28013,7 +28031,7 @@
         <v>667</v>
       </c>
       <c r="B1639" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1639" s="2"/>
       <c r="G1639" s="2"/>
@@ -28043,7 +28061,7 @@
         <v>655</v>
       </c>
       <c r="B1642" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1642" s="2"/>
       <c r="G1642" s="2"/>
@@ -28073,7 +28091,7 @@
         <v>649</v>
       </c>
       <c r="B1645" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1645" s="2"/>
       <c r="G1645" s="2"/>
@@ -28103,7 +28121,7 @@
         <v>637</v>
       </c>
       <c r="B1648" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1648" s="2"/>
       <c r="G1648" s="2"/>
@@ -28143,7 +28161,7 @@
         <v>643</v>
       </c>
       <c r="B1652" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1652" s="2"/>
       <c r="G1652" s="2"/>
@@ -28173,7 +28191,7 @@
         <v>661</v>
       </c>
       <c r="B1655" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="F1655" s="2"/>
       <c r="G1655" s="2"/>
@@ -28284,7 +28302,7 @@
         <v>1840</v>
       </c>
       <c r="D1664" s="2" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="F1664" s="2"/>
       <c r="G1664" s="2"/>
@@ -28380,16 +28398,16 @@
         <v>1478</v>
       </c>
       <c r="B1673" s="2" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="C1673" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D1673" s="2" t="s">
         <v>3101</v>
       </c>
-      <c r="D1673" s="2" t="s">
-        <v>3103</v>
-      </c>
       <c r="E1673" s="2" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="F1673" s="2"/>
       <c r="G1673" s="2"/>
@@ -28399,16 +28417,16 @@
         <v>1477</v>
       </c>
       <c r="B1674" s="2" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1674" s="2" t="s">
         <v>3100</v>
       </c>
-      <c r="C1674" s="2" t="s">
+      <c r="D1674" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E1674" s="2" t="s">
         <v>3102</v>
-      </c>
-      <c r="D1674" s="2" t="s">
-        <v>3103</v>
-      </c>
-      <c r="E1674" s="2" t="s">
-        <v>3104</v>
       </c>
       <c r="F1674" s="2"/>
       <c r="G1674" s="2"/>
@@ -28421,16 +28439,16 @@
         <v>1926</v>
       </c>
       <c r="C1675" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D1675" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="D1675" s="2" t="s">
+      <c r="E1675" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F1675" s="2" t="s">
         <v>3107</v>
-      </c>
-      <c r="E1675" s="2" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F1675" s="2" t="s">
-        <v>3109</v>
       </c>
       <c r="G1675" s="2"/>
     </row>
@@ -28442,16 +28460,16 @@
         <v>1926</v>
       </c>
       <c r="C1676" s="2" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D1676" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1676" s="2" t="s">
         <v>3106</v>
       </c>
-      <c r="D1676" s="2" t="s">
+      <c r="F1676" s="2" t="s">
         <v>3107</v>
-      </c>
-      <c r="E1676" s="2" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F1676" s="2" t="s">
-        <v>3109</v>
       </c>
       <c r="G1676" s="2"/>
     </row>
@@ -28460,16 +28478,16 @@
         <v>1476</v>
       </c>
       <c r="B1677" s="2" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="C1677" s="2" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D1677" s="2" t="s">
         <v>3096</v>
       </c>
-      <c r="D1677" s="2" t="s">
-        <v>3098</v>
-      </c>
       <c r="E1677" s="2" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="F1677" s="2"/>
       <c r="G1677" s="2"/>
@@ -28479,16 +28497,16 @@
         <v>1475</v>
       </c>
       <c r="B1678" s="2" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1678" s="2" t="s">
         <v>3095</v>
       </c>
-      <c r="C1678" s="2" t="s">
+      <c r="D1678" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E1678" s="2" t="s">
         <v>3097</v>
-      </c>
-      <c r="D1678" s="2" t="s">
-        <v>3098</v>
-      </c>
-      <c r="E1678" s="2" t="s">
-        <v>3099</v>
       </c>
       <c r="F1678" s="2"/>
       <c r="G1678" s="2"/>
@@ -28498,16 +28516,16 @@
         <v>1471</v>
       </c>
       <c r="B1679" s="2" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C1679" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D1679" s="2" t="s">
         <v>3088</v>
       </c>
-      <c r="C1679" s="2" t="s">
+      <c r="E1679" s="2" t="s">
         <v>3089</v>
-      </c>
-      <c r="D1679" s="2" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E1679" s="2" t="s">
-        <v>3091</v>
       </c>
       <c r="F1679" s="2"/>
       <c r="G1679" s="2"/>
@@ -28517,16 +28535,16 @@
         <v>1470</v>
       </c>
       <c r="B1680" s="2" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C1680" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D1680" s="2" t="s">
         <v>3088</v>
       </c>
-      <c r="C1680" s="2" t="s">
+      <c r="E1680" s="2" t="s">
         <v>3089</v>
-      </c>
-      <c r="D1680" s="2" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E1680" s="2" t="s">
-        <v>3091</v>
       </c>
       <c r="F1680" s="2"/>
       <c r="G1680" s="2"/>
@@ -28536,13 +28554,13 @@
         <v>1473</v>
       </c>
       <c r="B1681" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1681" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1681" s="2" t="s">
         <v>3092</v>
-      </c>
-      <c r="C1681" s="2" t="s">
-        <v>3093</v>
-      </c>
-      <c r="D1681" s="2" t="s">
-        <v>3094</v>
       </c>
       <c r="F1681" s="2"/>
       <c r="G1681" s="2"/>
@@ -28552,13 +28570,13 @@
         <v>1474</v>
       </c>
       <c r="B1682" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1682" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1682" s="2" t="s">
         <v>3092</v>
-      </c>
-      <c r="C1682" s="2" t="s">
-        <v>3093</v>
-      </c>
-      <c r="D1682" s="2" t="s">
-        <v>3094</v>
       </c>
       <c r="F1682" s="2"/>
       <c r="G1682" s="2"/>
@@ -29208,7 +29226,7 @@
         <v>1589</v>
       </c>
       <c r="B1747" s="2" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="F1747" s="2"/>
       <c r="G1747" s="2"/>
@@ -29238,7 +29256,7 @@
         <v>1592</v>
       </c>
       <c r="B1750" s="2" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="F1750" s="2"/>
       <c r="G1750" s="2"/>
@@ -29248,7 +29266,7 @@
         <v>1593</v>
       </c>
       <c r="B1751" s="2" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="F1751" s="2"/>
       <c r="G1751" s="2"/>
@@ -29258,7 +29276,7 @@
         <v>1594</v>
       </c>
       <c r="B1752" s="2" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="F1752" s="2"/>
       <c r="G1752" s="2"/>
@@ -29288,7 +29306,7 @@
         <v>1597</v>
       </c>
       <c r="B1755" s="2" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="F1755" s="2"/>
       <c r="G1755" s="2"/>
@@ -29298,7 +29316,7 @@
         <v>1598</v>
       </c>
       <c r="B1756" s="2" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="F1756" s="2"/>
       <c r="G1756" s="2"/>
@@ -29328,7 +29346,7 @@
         <v>1601</v>
       </c>
       <c r="B1759" s="2" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="F1759" s="2"/>
       <c r="G1759" s="2"/>
@@ -29338,7 +29356,7 @@
         <v>1602</v>
       </c>
       <c r="B1760" s="2" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="F1760" s="2"/>
       <c r="G1760" s="2"/>
@@ -29358,10 +29376,10 @@
         <v>1604</v>
       </c>
       <c r="B1762" s="2" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="C1762" s="2" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="F1762" s="2"/>
       <c r="G1762" s="2"/>
@@ -29371,7 +29389,7 @@
         <v>1605</v>
       </c>
       <c r="B1763" s="2" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="F1763" s="2"/>
       <c r="G1763" s="2"/>
@@ -29421,7 +29439,7 @@
         <v>1610</v>
       </c>
       <c r="B1768" s="2" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="F1768" s="2"/>
       <c r="G1768" s="2"/>
@@ -29471,7 +29489,7 @@
         <v>1615</v>
       </c>
       <c r="B1773" s="2" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="F1773" s="2"/>
       <c r="G1773" s="2"/>
@@ -29481,7 +29499,7 @@
         <v>1616</v>
       </c>
       <c r="B1774" s="2" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="F1774" s="2"/>
       <c r="G1774" s="2"/>
@@ -29531,7 +29549,7 @@
         <v>1621</v>
       </c>
       <c r="B1779" s="2" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="F1779" s="2"/>
       <c r="G1779" s="2"/>
@@ -29631,7 +29649,7 @@
         <v>1632</v>
       </c>
       <c r="B1789" s="2" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="F1789" s="2"/>
       <c r="G1789" s="2"/>
@@ -29746,12 +29764,12 @@
       <c r="F1800" s="2"/>
       <c r="G1800" s="2"/>
     </row>
-    <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1801" s="2" t="s">
         <v>1644</v>
       </c>
       <c r="B1801" s="2" t="s">
-        <v>1644</v>
+        <v>3265</v>
       </c>
       <c r="F1801" s="2"/>
       <c r="G1801" s="2"/>
@@ -30266,12 +30284,12 @@
       <c r="F1852" s="2"/>
       <c r="G1852" s="2"/>
     </row>
-    <row r="1853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1853" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1853" s="2" t="s">
         <v>1696</v>
       </c>
       <c r="B1853" s="2" t="s">
-        <v>1696</v>
+        <v>3268</v>
       </c>
       <c r="F1853" s="2"/>
       <c r="G1853" s="2"/>
@@ -30371,7 +30389,7 @@
         <v>1706</v>
       </c>
       <c r="B1863" s="2" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="F1863" s="2"/>
       <c r="G1863" s="2"/>
@@ -30381,7 +30399,7 @@
         <v>1707</v>
       </c>
       <c r="B1864" s="2" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="F1864" s="2"/>
       <c r="G1864" s="2"/>
@@ -30391,7 +30409,7 @@
         <v>1708</v>
       </c>
       <c r="B1865" s="2" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="F1865" s="2"/>
       <c r="G1865" s="2"/>
@@ -30444,7 +30462,7 @@
         <v>1713</v>
       </c>
       <c r="B1870" s="2" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="F1870" s="2"/>
       <c r="G1870" s="2"/>
@@ -30454,7 +30472,7 @@
         <v>1714</v>
       </c>
       <c r="B1871" s="2" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="F1871" s="2"/>
       <c r="G1871" s="2"/>
@@ -30464,7 +30482,7 @@
         <v>1727</v>
       </c>
       <c r="B1872" s="2" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="F1872" s="2"/>
       <c r="G1872" s="2"/>
@@ -30474,7 +30492,7 @@
         <v>1729</v>
       </c>
       <c r="B1873" s="2" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="F1873" s="2"/>
       <c r="G1873" s="2"/>
@@ -30484,10 +30502,10 @@
         <v>1730</v>
       </c>
       <c r="B1874" s="2" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="C1874" s="2" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="F1874" s="2"/>
       <c r="G1874" s="2"/>
@@ -34654,15 +34672,15 @@
         <v>2876</v>
       </c>
       <c r="B2331" s="2" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="2332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2332" s="2" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B2332" s="2" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="2333" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -34670,13 +34688,13 @@
         <v>1723</v>
       </c>
       <c r="B2333" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C2333" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D2333" s="2" t="s">
         <v>3092</v>
-      </c>
-      <c r="C2333" s="2" t="s">
-        <v>3093</v>
-      </c>
-      <c r="D2333" s="2" t="s">
-        <v>3094</v>
       </c>
     </row>
     <row r="2334" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -34684,19 +34702,19 @@
         <v>1721</v>
       </c>
       <c r="B2334" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C2334" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D2334" s="2" t="s">
         <v>3143</v>
       </c>
-      <c r="C2334" s="2" t="s">
+      <c r="E2334" s="2" t="s">
         <v>3144</v>
       </c>
-      <c r="D2334" s="2" t="s">
+      <c r="F2334" s="2" t="s">
         <v>3145</v>
-      </c>
-      <c r="E2334" s="2" t="s">
-        <v>3146</v>
-      </c>
-      <c r="F2334" s="2" t="s">
-        <v>3147</v>
       </c>
     </row>
     <row r="2335" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -34704,22 +34722,22 @@
         <v>1726</v>
       </c>
       <c r="B2335" s="2" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="C2335" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D2335" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E2335" s="2" t="s">
         <v>3171</v>
       </c>
-      <c r="D2335" s="2" t="s">
+      <c r="F2335" s="2" t="s">
         <v>3172</v>
       </c>
-      <c r="E2335" s="2" t="s">
+      <c r="G2335" s="2" t="s">
         <v>3173</v>
-      </c>
-      <c r="F2335" s="2" t="s">
-        <v>3174</v>
-      </c>
-      <c r="G2335" s="2" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="2336" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -34727,7 +34745,7 @@
         <v>1728</v>
       </c>
       <c r="B2336" s="2" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="2337" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -34738,19 +34756,19 @@
         <v>2321</v>
       </c>
       <c r="C2337" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D2337" s="2" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E2337" s="2" t="s">
         <v>3148</v>
       </c>
-      <c r="D2337" s="2" t="s">
+      <c r="F2337" s="2" t="s">
         <v>3149</v>
       </c>
-      <c r="E2337" s="2" t="s">
+      <c r="G2337" s="2" t="s">
         <v>3150</v>
-      </c>
-      <c r="F2337" s="2" t="s">
-        <v>3151</v>
-      </c>
-      <c r="G2337" s="2" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="2338" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -34761,16 +34779,16 @@
         <v>2332</v>
       </c>
       <c r="C2338" s="2" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="D2338" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E2338" s="2" t="s">
         <v>3084</v>
       </c>
-      <c r="E2338" s="2" t="s">
-        <v>3086</v>
-      </c>
       <c r="F2338" s="2" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="2339" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -34778,19 +34796,19 @@
         <v>1719</v>
       </c>
       <c r="B2339" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C2339" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D2339" s="2" t="s">
         <v>3134</v>
       </c>
-      <c r="C2339" s="2" t="s">
+      <c r="E2339" s="2" t="s">
         <v>3135</v>
       </c>
-      <c r="D2339" s="2" t="s">
+      <c r="F2339" s="2" t="s">
         <v>3136</v>
-      </c>
-      <c r="E2339" s="2" t="s">
-        <v>3137</v>
-      </c>
-      <c r="F2339" s="2" t="s">
-        <v>3138</v>
       </c>
     </row>
     <row r="2340" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -34798,19 +34816,19 @@
         <v>1717</v>
       </c>
       <c r="B2340" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C2340" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D2340" s="2" t="s">
         <v>3153</v>
       </c>
-      <c r="C2340" s="2" t="s">
+      <c r="E2340" s="2" t="s">
         <v>3154</v>
       </c>
-      <c r="D2340" s="2" t="s">
+      <c r="F2340" s="2" t="s">
         <v>3155</v>
-      </c>
-      <c r="E2340" s="2" t="s">
-        <v>3156</v>
-      </c>
-      <c r="F2340" s="2" t="s">
-        <v>3157</v>
       </c>
     </row>
     <row r="2341" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -34818,16 +34836,16 @@
         <v>1724</v>
       </c>
       <c r="B2341" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C2341" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D2341" s="2" t="s">
         <v>3162</v>
       </c>
-      <c r="C2341" s="2" t="s">
+      <c r="E2341" s="2" t="s">
         <v>3163</v>
-      </c>
-      <c r="D2341" s="2" t="s">
-        <v>3164</v>
-      </c>
-      <c r="E2341" s="2" t="s">
-        <v>3165</v>
       </c>
       <c r="F2341" s="2"/>
     </row>
@@ -34839,16 +34857,16 @@
         <v>1926</v>
       </c>
       <c r="C2342" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D2342" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="D2342" s="2" t="s">
+      <c r="E2342" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F2342" s="2" t="s">
         <v>3107</v>
-      </c>
-      <c r="E2342" s="2" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F2342" s="2" t="s">
-        <v>3109</v>
       </c>
     </row>
     <row r="2343" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -34856,16 +34874,16 @@
         <v>1720</v>
       </c>
       <c r="B2343" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C2343" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D2343" s="2" t="s">
         <v>3139</v>
       </c>
-      <c r="C2343" s="2" t="s">
+      <c r="E2343" s="2" t="s">
         <v>3140</v>
-      </c>
-      <c r="D2343" s="2" t="s">
-        <v>3141</v>
-      </c>
-      <c r="E2343" s="2" t="s">
-        <v>3142</v>
       </c>
       <c r="F2343" s="2"/>
       <c r="G2343" s="2"/>
@@ -34875,16 +34893,16 @@
         <v>1718</v>
       </c>
       <c r="B2344" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C2344" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D2344" s="2" t="s">
         <v>3158</v>
       </c>
-      <c r="C2344" s="2" t="s">
+      <c r="E2344" s="2" t="s">
         <v>3159</v>
-      </c>
-      <c r="D2344" s="2" t="s">
-        <v>3160</v>
-      </c>
-      <c r="E2344" s="2" t="s">
-        <v>3161</v>
       </c>
       <c r="F2344" s="2"/>
       <c r="G2344" s="2"/>
@@ -34894,170 +34912,186 @@
         <v>1725</v>
       </c>
       <c r="B2345" s="2" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="C2345" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D2345" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E2345" s="2" t="s">
         <v>3166</v>
       </c>
-      <c r="D2345" s="2" t="s">
+      <c r="F2345" s="2" t="s">
         <v>3167</v>
       </c>
-      <c r="E2345" s="2" t="s">
+      <c r="G2345" s="2" t="s">
         <v>3168</v>
-      </c>
-      <c r="F2345" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="G2345" s="2" t="s">
-        <v>3170</v>
       </c>
     </row>
     <row r="2346" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2346" s="2" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="B2346" s="2" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="2347" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2347" s="2" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="B2347" s="2" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="2348" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2348" s="2" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="B2348" s="2" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="2349" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2349" s="2" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="B2349" s="2" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="2350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2350" s="2" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="B2350" s="2" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="2351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2351" s="2" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="B2351" s="2" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="2352" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2352" s="2" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B2352" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="2353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2353" s="2" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="B2353" s="2" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2354" s="2" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="B2354" s="2" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="2355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2355" s="2" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="B2355" s="2" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="2356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2356" s="2" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="B2356" s="2" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="2357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2357" s="2" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="B2357" s="2" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="2358" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2358" s="2" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="B2358" s="2" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="2359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2359" s="2" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="B2359" s="2" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="2360" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2360" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B2360" s="2" t="s">
         <v>3256</v>
-      </c>
-      <c r="B2360" s="2" t="s">
-        <v>3258</v>
       </c>
     </row>
     <row r="2361" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2361" s="2" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="B2361" s="2" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="2362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2362" s="2" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="B2362" s="2" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2363" s="2" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="B2363" s="2" t="s">
-        <v>3259</v>
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2364" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B2364" s="2" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2365" s="2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B2365" s="2" t="s">
+        <v>3263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2363" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:E2363" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1682">
     <sortCondition ref="A2:A1682"/>
   </sortState>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD18B32-F136-4B64-A78E-678A57B62F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F2D8D-2AC5-4038-A432-5BF8778336A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10292,8 +10292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:H2364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2344" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2358" sqref="C2358"/>
+    <sheetView tabSelected="1" topLeftCell="A2359" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2375" sqref="C2375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F2D8D-2AC5-4038-A432-5BF8778336A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A4892-BD14-4255-93FC-26D4BEEA1DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5353" uniqueCount="3269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="3270">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -9887,6 +9887,9 @@
   </si>
   <si>
     <t>Bỏ nhau thì ít nhưng mình dễ mất trước</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Phụ Mẫu tại</t>
   </si>
 </sst>
 </file>
@@ -10290,10 +10293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:H2364"/>
+  <dimension ref="A2:H2365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2375" sqref="C2375"/>
+      <selection activeCell="E2361" sqref="E2361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35090,6 +35093,11 @@
       </c>
       <c r="B2364" s="2" t="s">
         <v>3261</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2365" s="2" t="s">
+        <v>3269</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A4892-BD14-4255-93FC-26D4BEEA1DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0657B-4F56-42EC-B48A-1055972BD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="3270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="3298">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -9889,7 +9889,177 @@
     <t>Bỏ nhau thì ít nhưng mình dễ mất trước</t>
   </si>
   <si>
-    <t>Vị trí địa sinh cung Phụ Mẫu tại</t>
+    <t>Vị trí cung Mệnh so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh so với ngũ hành Mệnh: Bại địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Tý</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Sửu</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Dần</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Mão</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Thìn</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Tỵ</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Ngọ</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Mùi</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Thân</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Dậu</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Tuất</t>
+  </si>
+  <si>
+    <t>Vị trí cung Mệnh tại: Hợi</t>
+  </si>
+  <si>
+    <t>Luôn có thái độ lạc quan với cuộc sống.
+- Khí chất văn nhã.
+- Không có suy nghĩ tiêu cực, ẩn tránh.
+- Đối với bạn bè luôn tôn trọng tình xưa nghĩa cũ, không hề có quan điểm có mới bỏ cũ.
+- Thể hiện sự nhẫn nhịn trong quan hệ vợ chồng.
+- Thông minh, thành thật.
+- Thường có sự phán đoán khác nhau về sự vật.
+- Có thái độ chủ quan thái quá.
+- Ý chí kiên cường.
+- Bàn về sự việc mà không luận về con người.
+- Không thù lâu, có thái độ khoan dung độ lượng.
+- Dễ phạm đào hoa, có giao du rộng rãi.
+- Thường dễ dàng thừa nhận sự việc dễ hối hận.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Có cá tính độc lập, bôn ba bên ngoài, không có sự giúp đỡ của người thân.
+- Nên xa quê mới có thể lập nghiệp.
+- Thích lập công trạng, có chí hướng phấn đấu.
+- Không tính toán mức độ lợi hại của bàn thân, thường tự gánh vác các trách nhiệm lớn lao.
+- Thường thể hiện thái độ cao ngạo hoặc giáo huấn người khác.
+- Thích người khác tín nhiệm, tôn kính và khen ngợi bản thân mình.
+- Khi bị người khác phản đối ý kiến của mình thường dễ tức giận.
+- Một dời vất vả, sống lâu mà mang bệnh bên mình.
+- Dễ bị người khác oán ghét thành thù địch mà hãm hại.</t>
+  </si>
+  <si>
+    <t>Mệnh vốn khổ cực, thông minh, có thể chịu vất vả, làm việc cực nhọc.
+- Tự chuốc lấy sự vất vả.
+- Luôn muốn đạt được mục đích.
+- Không chịu sự bó buộc.
+- Gặp phải sự chế ngự của người khác.
+- Mắt sáng, tính tình nhanh nhẹn.
+- Lời nói gây thiện cảm cho người khác.
+- Thường muốn người khác cùng chia sẻ sự thành công trong công việc.
+- Giao du rộng rãi, có nhiều quan hệ trong xã hội.
+- Cá tính mạnh mẽ.
+- Có thể hưởng cuộc sống giàu có.</t>
+  </si>
+  <si>
+    <t>Dễ phạm đào hoa, phong lưu thích giao du.
+- Khi còn niên thiếu có thể chất yếu đuối, khi trưởng thành sức khỏe được hồi phục.
+- Thần kinh mẫn cảm, hay nóng giận.
+- Hay chấp nhặt việc nhỏ.
+- Thường hay gặp đổ vỡ, cho nên có tính cẩn trọng.
+- Nghiêm khắc với bản thân, có khả năng quan sát.
+- Lục thân không giúp đỡ, tự bản thân phải gây dựng sự nghiệp.
+- Có khả năng đối nhân xử thế hợp tình hợp lý.
+- Thiện ác phân minh.
+- Con người này cần phải được mài giũa mới trở thành người hữu dụng.
+- Có khí chất kiên cường.</t>
+  </si>
+  <si>
+    <t>Cô độc, biểu hiện bên ngoài trầm uất, không nhờ cậy được lục thân.
+- Nên sớm xa quê, ra ngoài mới phát triển được sự nghiệp.
+- Hành xử có lễ độ.
+- Tính cách nhu thuận, biết ứng xử phải đạo.
+- Thích giúp đỡ người khác.
+- Suy nghĩ chu đáo, hành sự công chính.
+- Thích làm người trung gian.
+- Là người thông minh, làm việc có kế sách, xử lý công việc dung hòa mà không gặp trở ngại.
+- Thiếu khả năng quyết đoán trong công việc.
+- Dễ mang họa vào thân, làm nhiều việc có phúc nhưng chẳng được trả ơn.</t>
+  </si>
+  <si>
+    <t>Thường mơ mộng viển vông, tham nhỏ mất lớn.
+- Thường cần cù làm việc, tự tìm sự vất vả, dễ bị người khác chế ngự.
+- Có thái độ trầm lặng, thường hay suy nghĩ.
+- Mệnh vất vả, cô độc.
+- Có cá tính, chí khí, thông minh, tinh tế, mưu lược.
+- Tích nhỏ thành lớn, có thể giao dịch và kinh doanh.</t>
+  </si>
+  <si>
+    <t>Tự cao tự đại, phong lưu hiếu sắc, thích giao du.
+- Thích là người lãnh đạo tính tình trong sáng, gia vận hưng vượng.
+- Khoan dung đại lượng, lời nói sắc bén, khiến người khác nể phục.
+- Thường chú ý tới những việc có lợi cho bản thân, hay lợi dụng người khác, lời nói và hành động thường không thống nhất.
+- Phàm làm việc gì đều phải thành thực mới có thể hy vọng thành công được.</t>
+  </si>
+  <si>
+    <t>Không dễ tiếp nhận ý kiến của người khác.
+- Ngoài thì nhu thuận nhưng trong lòng sắt đá.
+- Hành sự cẩn thận, làm việc nhẫn nhịn.
+- Có nhiều ý tưởng, thực hiện được ít, mẫn cảm, thường hay tức giận.
+- Nhất cử nhất động thường rụt rè.
+- Cô độc, có chí khí không lớn, không cậy nhờ được lục thân.
+- Nên rời xa quê, tự thân vận động, gây dựng sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Có lòng tự tin, có lúc mâu thuẫn với chính bản thân.
+- Nên kết hôn muộn.
+- Tính tình cẩn thận.
+- Lời nói hợp ý mọi người.
+- Có tài năng biểu diễn.
+- Làm việc thường đắn đo được mất.</t>
+  </si>
+  <si>
+    <t>Tính tình trầm lặng, tấm lòng thiện lương, trung thực.
+- Có tính thông minh, nhanh ẩu đoảng, thường hay thất bại.
+- Có cá tính, không chịu khuất phục người khác, thích làm việc một mình.
+- Thích du sơn ngoạn thủy, tham quan các danh thắng.
+- Khi thất thế thường ưu phiền nhưng cũng tự điều hòa được bản thân.
+- Phạm đào hoa.</t>
+  </si>
+  <si>
+    <t>Thường tỏ thái độ lạnh nhạt khi gặp thương tổn.
+- Cô độc, thường thể hiện sự trầm lắng, không dựa vào lục thân.
+- Nên sớm rời xa quê, lập nghiệp ở bên ngoài.
+- Làm việc nhiệt tình, tinh thần quả cảm.
+- Tự biết cách làm việc, thiếu tính nhẫn lại.
+- Tâm tính bình hòa, không dễ bị kích động.
+- Người này không gò ép thì khó có thể thành công.</t>
+  </si>
+  <si>
+    <t>Đa sầu đa cảm.
+- Đối nhân xử thế nhiệt tình.
+- Nghe một lần đã hiểu.
+- Tình cảm nồng hậu, thường nhường nhịn với mọi người.
+- Không coi trọng tiền bạc, thích cùng chia sẻ với mọi người sự thành công.
+- Tự tìm đến sự sầu khổ.
+- Vất vả, nhọc nhằn.</t>
   </si>
 </sst>
 </file>
@@ -10293,10 +10463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:H2365"/>
+  <dimension ref="A2:H2381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2361" sqref="E2361"/>
+      <selection activeCell="C2370" sqref="C2370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35098,6 +35268,137 @@
     <row r="2365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2365" s="2" t="s">
         <v>3269</v>
+      </c>
+      <c r="B2365" s="2" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2366" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B2366" s="2" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2367" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B2367" s="2" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2368" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B2368" s="2" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2369" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B2369" s="2" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2370" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B2370" s="2" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2371" s="2" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B2371" s="2" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2372" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B2372" s="2" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2373" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B2373" s="2" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2374" s="2" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B2374" s="2" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2375" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B2375" s="2" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2376" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B2376" s="2" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2377" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B2377" s="2" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2378" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B2378" s="2" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2379" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B2379" s="2" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2380" s="2" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B2380" s="2" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2381" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B2381" s="2" t="s">
+        <v>3297</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0657B-4F56-42EC-B48A-1055972BD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1EF48-3CE6-4F66-8C3D-DEADDBE5EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10776" uniqueCount="3307">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10060,6 +10060,33 @@
 - Không coi trọng tiền bạc, thích cùng chia sẻ với mọi người sự thành công.
 - Tự tìm đến sự sầu khổ.
 - Vất vả, nhọc nhằn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vì Hóa Quyền thuộc hỏa, có ý tượng "nâng lên", "biểu hiện một cách rõ ràng" ... Trường hợp Hóa Quyền ở cung mệnh, sẽ làm cho bản thân có tinh thần trách nhiệm và chịu được áp lực, mà mục đích của nó là vì muốn có địa vị xã hội, hoặc để có được sự đồng cảm và phụ họa của người khác.</t>
+  </si>
+  <si>
+    <t>Cung mệnh là hình tượng của một người, cho nên trường hợp có Hóa Quyền ở cung mệnh, dù có quảng bá để nâng bản thân lên thì cũng chỉ là để tạo hình tượng cá nhân, sẽ khiến mệnh tạo có bề ngoài nghiêm túc. Nếu Hóa Lộc và Hóa Kị nhập "ngã cung", thì sẽ có biểu hiện uy nghiêm, uy tín trong lời nói và hành động. Nếu Hóa Lộc và Hóa Kị ở vị trí không thích đáng, hoặc cung mệnh lại tự Hóa Kị, thì sẽ có tính hay ép buộc người khác, khiến cho người ta có cảm giác mệnh tạo là người võ đoán, ỷ thế áp chế người khác, bạo ngược và khó thân cận.</t>
+  </si>
+  <si>
+    <t>Ý tượng của Hóa Quyền có tính thực tiễn, tính thực hiện, tính hành động, biểu hiện của nó đều không ở trạng thái tình. Vì vậy trường hợp Hóa Quyền ở cung mệnh thì khó mà tâm bình khí hòa, tâm cảnh của mệnh tạo khó tĩnh lặng, sẽ có lối suy nghĩ vội vàng, dễ bị kích động, trong lòng hay lo lắng không yên, và hay nhận định một cách hấp tấp.</t>
+  </si>
+  <si>
+    <t>Tứ hóa [năm sinh] ở cung mệnh nhiều ít đều có kiểu suy nghĩ lợi kỉ, hoặc chỉ lo cho mình, bất kể người khác ra sao; mà trường hợp Hóa Quyền là nặng nhất. Hóa Quyền ở cung mệnh, có ưu điểm là tích cực, quyết định và động tác đều mau lẹ, khá chủ quan, ý thức về bản thân rất mạnh, dễ lấy "cái tôi" làm trung tâm, không quan tâm hoặc xem thường lập trường của người khác, tự cho mình là đúng, ngoan cố, khó thông cảm người khác. Hóa Quyền ở cung mệnh, tất nhiên thích nắm quyền, thường có cảm giác mình cao hơn người khác một bậc, sẽ dễ bành trướng "cái tôi", thiếu tính nhẫn nại, không thích nhận lỗi, nhưng cũng nhờ tính cách không chịu thua này mà họ tự đốc thúc bản thân rất mạnh.</t>
+  </si>
+  <si>
+    <t>Trường hợp Hóa Quyền ở cung mệnh thường trưởng thành khá sớm, vì trong đại vận thứ nhất đã có tác động của Hóa Quyền. Lúc còn trẻ đã biết hướng nỗ lực của đời mình, vì vậy khoảng cách cao thấp giữa thành công và thất bại sẽ lớn hơn người bình thường. Nếu Hóa Lộc và Hóa Kị ở ví trí đối nhau thì thành tựu phi phàm, có tính quyền uy. Nếu Hóa Lộc và Hóa Kị ở vị trí không thích đáng thì việc chi ra, hao tổn hơn người bình thường, nhưng lại khó thu hoạch. Hóa Quyền chủ về biến động, sôi nổi; Hóa Quyền ở cung mệnh thì vận trình cuộc đời tất nhiên sẽ nhiều thăng trầm. Nếu bản thân sao Hóa Quyền có tính biến động không yên, hoặc các sao ở cung vị có địa chi xung đột với tính của sao, gặp Hóa Quyền ở cung mệnh, sẽ khó tránh một đời bôn ba, gặp nhiều sóng gió trắc trở, nếm trải đủ thói đời nóng lạnh.</t>
+  </si>
+  <si>
+    <t>Lúc cung mệnh làm cung vị phúc đức của cung phu thê, thì mệnh tạo có tính vội vàng, hấp tấp, dễ bị kích động, sẽ ảnh hưởng đến trạng thái tâm lí của "một nửa kia"; họ luôn muốn dùng thời gian ngắn nhất để tạo ra hiệu quá lớn nhất; sau khi kết hôn, cuộc sống chung của hai người sẽ thấy căng thẳng, cũng không loại trừ trường hợp vì mệnh tạo có tình cảm bên ngoài khiến cho người phối ngẫu phải buồn phiền.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cung mệnh là cầu nối giữa cung phụ mẫu và cung huynh đệ, Hóa Quyền ở cung mệnh, bản thân mệnh tạo là người chủ chốt trong gia đình; nói một cách tương đối, lúc quan hệ giữa cha mẹ và anh em hơi căng thẳng thì mệnh tạo thường là người đứng ra hòa giải.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cung mệnh là cầu nối giữa cung phụ mẫu và cung huynh đệ, Hóa Quyền ở cung mệnh, bản thân mệnh tạo là người chủ chốt trong gia đình; nói một cách tương đối, lúc quan hệ giữa cha mẹ và anh em hơi căng thẳng thì mệnh tạo thường là người đứng ra hòa giải. Tiếp theo trên, nếu lấy cung huynh đệ đại biểu cho mẹ; trường hợp cung phụ mẫu hay cung tật ách có các sao đào hoa, hoặc tổ hợp sao ở cung huynh đệ và cung nô bộc không tốt, thì có thể quan hệ giữa cha và mẹ không được hòa hợp, mà mệnh tạo là cầu nối.</t>
+  </si>
+  <si>
+    <t>Cung mệnh là cung vị điền trạch của cung tử nữ, trường hợp có Hóa Quyền, mệnh tạo có thể là người rất uy nghiêm, khiến con cái ở trong nhà bị áp lực rất nặng, tuy con cái hướng về gia đình, nhưng cũng có phần sợ trong đó, nên ít khi ở nhà</t>
   </si>
 </sst>
 </file>
@@ -10463,10 +10490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:H2381"/>
+  <dimension ref="A2:K2381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2370" sqref="C2370"/>
+    <sheetView tabSelected="1" topLeftCell="H345" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J353" sqref="J353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10476,6 +10503,9 @@
     <col min="6" max="6" width="51.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="57.42578125" customWidth="1"/>
     <col min="8" max="8" width="59.7109375" customWidth="1"/>
+    <col min="9" max="9" width="48" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -14147,7 +14177,7 @@
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>854</v>
       </c>
@@ -14160,7 +14190,7 @@
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>855</v>
       </c>
@@ -14170,7 +14200,7 @@
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>1349</v>
       </c>
@@ -14180,10 +14210,32 @@
       <c r="C355" s="2" t="s">
         <v>2897</v>
       </c>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-    </row>
-    <row r="356" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D355" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>3301</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J355" s="2" t="s">
+        <v>3305</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>1131</v>
       </c>
@@ -14193,7 +14245,7 @@
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>873</v>
       </c>
@@ -14203,7 +14255,7 @@
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>1137</v>
       </c>
@@ -14213,7 +14265,7 @@
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
     </row>
-    <row r="359" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>747</v>
       </c>
@@ -14223,7 +14275,7 @@
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
     </row>
-    <row r="360" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>715</v>
       </c>
@@ -14233,7 +14285,7 @@
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>746</v>
       </c>
@@ -14243,7 +14295,7 @@
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
     </row>
-    <row r="362" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>717</v>
       </c>
@@ -14253,7 +14305,7 @@
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
     </row>
-    <row r="363" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>731</v>
       </c>
@@ -14263,7 +14315,7 @@
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
     </row>
-    <row r="364" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>733</v>
       </c>
@@ -14273,7 +14325,7 @@
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
     </row>
-    <row r="365" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>750</v>
       </c>
@@ -14283,7 +14335,7 @@
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
     </row>
-    <row r="366" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>719</v>
       </c>
@@ -14293,7 +14345,7 @@
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
     </row>
-    <row r="367" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>737</v>
       </c>
@@ -14303,7 +14355,7 @@
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
     </row>
-    <row r="368" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>725</v>
       </c>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1EF48-3CE6-4F66-8C3D-DEADDBE5EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99A4CB-570C-4419-AA27-4A2C271C7CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10776" uniqueCount="3307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="3311">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10080,13 +10080,25 @@
     <t>Lúc cung mệnh làm cung vị phúc đức của cung phu thê, thì mệnh tạo có tính vội vàng, hấp tấp, dễ bị kích động, sẽ ảnh hưởng đến trạng thái tâm lí của "một nửa kia"; họ luôn muốn dùng thời gian ngắn nhất để tạo ra hiệu quá lớn nhất; sau khi kết hôn, cuộc sống chung của hai người sẽ thấy căng thẳng, cũng không loại trừ trường hợp vì mệnh tạo có tình cảm bên ngoài khiến cho người phối ngẫu phải buồn phiền.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cung mệnh là cầu nối giữa cung phụ mẫu và cung huynh đệ, Hóa Quyền ở cung mệnh, bản thân mệnh tạo là người chủ chốt trong gia đình; nói một cách tương đối, lúc quan hệ giữa cha mẹ và anh em hơi căng thẳng thì mệnh tạo thường là người đứng ra hòa giải.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cung mệnh là cầu nối giữa cung phụ mẫu và cung huynh đệ, Hóa Quyền ở cung mệnh, bản thân mệnh tạo là người chủ chốt trong gia đình; nói một cách tương đối, lúc quan hệ giữa cha mẹ và anh em hơi căng thẳng thì mệnh tạo thường là người đứng ra hòa giải. Tiếp theo trên, nếu lấy cung huynh đệ đại biểu cho mẹ; trường hợp cung phụ mẫu hay cung tật ách có các sao đào hoa, hoặc tổ hợp sao ở cung huynh đệ và cung nô bộc không tốt, thì có thể quan hệ giữa cha và mẹ không được hòa hợp, mà mệnh tạo là cầu nối.</t>
   </si>
   <si>
     <t>Cung mệnh là cung vị điền trạch của cung tử nữ, trường hợp có Hóa Quyền, mệnh tạo có thể là người rất uy nghiêm, khiến con cái ở trong nhà bị áp lực rất nặng, tuy con cái hướng về gia đình, nhưng cũng có phần sợ trong đó, nên ít khi ở nhà</t>
+  </si>
+  <si>
+    <t>Vì cung mệnh là cung vị chủ về hình tượng bề ngoài, trường hợp thấy Hóa Khoa, chủ về bề ngoài trông rất có khí chất, cho người ta ấn tượng văn nhã, sở học thâm hậu; cũng khiến cho người ta có cảm giác mệnh tạo là một người mẫu mực, hoặc con nhà gia giáo. Tuy có dáng vẻ bề ngoài như vậy, nhưng bên trong có thực như vậy hay không thì phải xem cung quan lộc mới có thể định được. Trường hợp Hóa Khoa ở cung mệnh, tạo cho người khác ấn tượng họ là người hiếu học, thông thường học lực cũng ở mức trung bình trở lên. Bởi vì Hóa Khoa có năng lực trật tự hỏa rất mạnh, nên có sở trường hấp thu ưu điểm của người khác, học một biết mười, còn có thể chỉnh lí lại cho tốt hơn. Hơn nữa, do Hóa Khoa có tính rất nhạy bén, độ cảm thụ cũng cao, còn có sức nhẫn nại, ưa tiếp cận những sự vật liên quan đến phương diện văn học hoặc nghệ thuật, cũng thích hợp với học thuật nghiên cứu, có thiên phú về văn nghệ. Nhưng vì có tứ hóa ở cung mệnh, nên ý thức chủ quan cũng mạnh, còn thích so sánh sở học với người khác.</t>
+  </si>
+  <si>
+    <t>Hóa Khoa ở cung mệnh, là chủ về mệnh tạo có thể giữ tâm cảnh bình yên thoải mái, có thể tìm cho mình phương pháp buông xả; nhưng tứ hóa ở cung mệnh thì ít nhiều gì cách suy nghĩ cũng đều lấy "cái tôi" làm trung tâm, mà Hóa Khoa là trung tâm, phần nhiều họ chỉ lo phần mình, bất kể người khác nghĩ sao. Hơn nữa, bởi vì bản thân kì vọng mình có thể giữ được danh tiếng, giữ được danh dự, vì vậy mệnh tạo thường không biểu lộ rõ ràng cách suy nghĩ của mình, mà toan tính dùng phương thức ngầm chuyển biến đế làm thay đổi người khác, nhằm đạt được nguyện vọng của mình. Trường hợp Hóa Khoa ở cung mệnh, không chủ về thu hoạch được tiền bạc, mà chỉ có danh tiếng; đồng thời vì Hóa Khoa có tác dụng hóa giải, nên thường thường mệnh tạo có thể gặp hưng hóa cát. Vì Hóa Khoa có tác dụng tiết chế, nên lúc mệnh tạo gặp nguy hiểm phần nhiều sẽ chọn phương cách "minh triết bảo thân", không quá xung động, hoặc sẽ không hành động theo kiểu liều dốc túi đánh một canh bạc.</t>
+  </si>
+  <si>
+    <t>Người có Hóa Khoa ở cung mệnh thông thường sẽ không chủ động theo đuổi một điều gì, hoặc dựa vào sự công kích người khác để đạt thành ước vọng của bản thân, phần nhiều sẽ vì vậy mà lấy thế thủ làm chủ, không hấp tấp, không mạo hiếm xông tới; đây là nguyên tắc sống tối cao của người có Hóa Khoa [năm sinh] ở cung mệnh. Hơn nữa, phần nhiều sẽ có khuynh hướng dùng kĩ năng chuyên nghiệp, nhân sinh quan theo hướng tích cực, do nặng tâm lí phòng vệ họ thường dùng lời lẽ hoa mĩ để che đậy khuyết điểm của mình. Vì lực tác động của Hóa Khoa thuộc kiểu lâu dài, tiệm tiến; nên người có Hóa Khoa ở cung mệnh dễ nuối tiếc tình xưa, nhớ chuyện cũ, thích gió yên sóng lặng, có thói quen thay đổi dần dần; cho nên đối với những sự tình mới mẻ, trái với truyền thống, thường họ sẽ không dung nạp. Đối với những quan niệm mới họ có độ tiếp nhận cũng khá thấp; họ thường lấy kinh nghiệm của bản thân làm trung tâm, tuy đối với thời thượng họ cũng có độ nhạy bén, nhưng bản thân lại không thích theo đuổi trào lưu, có thích làm cho người ta có cảm giác họ là "hủ nho thủ cựu".</t>
+  </si>
+  <si>
+    <t>Do cung mệnh ở giữa cung phụ mẫu và cung huynh đệ nên có thể xem là cầu nối giữa cha mẹ với anh em; còn Hóa Khoa là bình ổn, hòa hoãn, theo xu hướng hòa hợp. Vì vậy người có Hóa Khoa ở cung mệnh thường có thể điều giải bầu không khí bất ổn trong gia đình, có thể hóa giải các tình huống đối lập nhau, và làm cho người trong gia đình hòa hợp trở lại. Hoàn cảnh sinh trưởng trong những tình huống như vậy, khiến mệnh tạo cũng sẽ thành người trung gian của anh chị em trong nhà. Lúc xem cung mệnh là cung vị phúc đức của cung phu thê, thông thường người cung mệnh có Hóa Khoa sau khi kết hôn khó xảy ra tình trạng hôn nhân biến chất, vì mệnh tạo có thể lấy khí độ, quan niệm của mình để ảnh hưởng người phối ngẫu, làm cho người phối ngẫu yên định. Phần nhiều người cung mệnh có Hóa Khoa tự nhiên toát ra khí thế nghiêm trang đạo mạo, đủ để khiến người phối ngẫu cảm thấy yên tâm mà không hoài nghi; nhưng muốn biết tình huống thực tế thế nào thì phải tham khảo cung phúc đức mới có thể đưa ra định luận.</t>
+  </si>
+  <si>
+    <t>Cung mệnh là cung vị điền trạch của cung tử nữ, trường hợp có Hóa Khoa, con cái rất hướng về gia đình, sống trong gia đình cũng hòa hợp vui vẻ. Hơn nữa, do lực tác động của Hóa Khoa, con cái sẽ cho rằng gia đình là cái hải cảng để tránh gió bão, là nơi an toàn nhất; khi chúng gặp phải vấn đề gì, suy nghĩ đầu tiên chính là trò chuyện trao đổi với người nhà, con cái đối với mệnh tạo cũng có nhiều kì vọng.</t>
   </si>
 </sst>
 </file>
@@ -10492,8 +10504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:K2381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H345" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J353" sqref="J353"/>
+    <sheetView tabSelected="1" topLeftCell="D307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G307" sqref="G307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13724,8 +13736,21 @@
       <c r="B307" s="2" t="s">
         <v>3022</v>
       </c>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
+      <c r="C307" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>3307</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>3310</v>
+      </c>
     </row>
     <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
@@ -14229,10 +14254,10 @@
         <v>3303</v>
       </c>
       <c r="J355" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="K355" s="2" t="s">
         <v>3305</v>
-      </c>
-      <c r="K355" s="2" t="s">
-        <v>3306</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99A4CB-570C-4419-AA27-4A2C271C7CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D78287-0E5D-456C-874F-2EA34B4F851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="3311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="3317">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10099,6 +10099,24 @@
   </si>
   <si>
     <t>Cung mệnh là cung vị điền trạch của cung tử nữ, trường hợp có Hóa Khoa, con cái rất hướng về gia đình, sống trong gia đình cũng hòa hợp vui vẻ. Hơn nữa, do lực tác động của Hóa Khoa, con cái sẽ cho rằng gia đình là cái hải cảng để tránh gió bão, là nơi an toàn nhất; khi chúng gặp phải vấn đề gì, suy nghĩ đầu tiên chính là trò chuyện trao đổi với người nhà, con cái đối với mệnh tạo cũng có nhiều kì vọng.</t>
+  </si>
+  <si>
+    <t>Người cung mệnh có Hóa Khoa [năm sinh] phần lớn đều thanh tú, văn nhã, lễ độ; bất kể có chân tài thực học hay không, hay chỉ là màu mè bề ngoài mà không có thực chất, thì bề ngoài của họ vẫn có phong thái rất trí thức. Người có Hóa Khoa [năm sinh] thủ mệnh rất ưa sĩ diện, văn nhã nhưng cũng giỏi che đậy, cho nên hình tượng và phong độ đều rất tốt; có khuynh hướng học hành giỏi. Hóa Khoa còn có ý tượng: treo cao "miễn chiến bài", cho nên người có Hóa Khoa [năm sinh] thủ mệnh khó đột nhiên bị tai ách làm tổn thương; còn nhờ tính hòa thuận, không cố chấp ý kiến của mình nên rất khó chuốc vạ vào thân. Nhờ tính cách này mà người có Hóa Khoa [năm sinh] thủ mệnh phát huy được tinh thần "tự giúp mình rồi trời sẽ giúp", họ là quý nhân của chính mình. Dưới tác động của vinh dự và thanh danh, người có Hóa Khoa [năm sinh] thủ mệnh thường có bề ngoài của một "quý nhân".</t>
+  </si>
+  <si>
+    <t>Vì Hóa Kị là điểm cuối cùng của tứ hóa, là lực tác động mang tính "gánh vác", cho nên trong trường hợp Hóa Kị ở cung mệnh, cho nên, bất luận tam hóa còn lại tạo ra chuyện vui mừng, oán hận, than thở, buồn rầu ... thảy đều do bản thân mệnh tạo âm thầm nhận chịu; cũng vì áp lực quá lớn như vậy, nên tâm tình của mệnh tạo cũng thay đổi lên xuống với biên độ rất lớn. bởi vì sướng khổ đều do bản thân nhận chịu, ít chia sẻ với người khác, nên cũng không chịu mang cách suy nghĩ của mình thố lộ với người khác. Cá tính của mệnh tạo khá "thu vào" (không giỏi biểu đạt tình cảm), do đó họ sẽ có tâm trạng cô độc. Vì có tâm trạng cô độc khó diễn tả như vậy, nên thường thường sẽ khiến mệnh tạo có trạng thái tâm lí đa nghi, càng không giỏi (mà thật ra cũng không ưa) giao tế. Cho nên rất khó thấy người này có nét mặt tươi cười. Dù Hóa Lộc và Hóa Kị đều ở "ngã cung", cũng chì khi nào mệnh tạo có được cảm giác thành tựu thì mới thấy được vé mặt rạng rỡ.</t>
+  </si>
+  <si>
+    <t>Vì vậy lúc mệnh tạo giao du với người khác rất dễ cảm thấy tự ti trước, sau đó lập tức bị tác dụng "thu vào" của Hóa Kị bức bách khiến họ phải thay đổi trạng thái tâm lí để gánh vác trọng trách (mệnh tạo là người có năng lực đảm đương, gánh vác), cho nên sẽ dễ từ mặc cảm tự ti biến thành tự phụ, thường thấy họ có trạng thái tâm lí lưỡng cực hóa. Người có Hóa Kị ở cung mệnh tạo cho người ta cảm giác họ là người quá độ cẩn thận và bảo thủ. Thông thường mệnh tạo sẽ không chủ động giao du với ai, trừ phi họ là người rất được tín nhiệm, nếu không ít thấy qua lại với nhau, nhưng một khi được mệnh tạo tín nhiệm, liệt vào danh sách "bạn bè", có thể nói là rất vinh hạnh. Vì Hóa Kị có ý tượng "gánh vác", "lâu dài", do đó mệnh tạo là mẫu người có duyên sâu nặng và lâu dài với bạn bè, cũng là mẫu người "gánh vác một cách bi tráng", cho nên thà chịu tổn hại chớ không chịu chiếm lợi thế, và ít khi làm tổn thương bạn bè.</t>
+  </si>
+  <si>
+    <t>Người có Hóa Kị ở cung mệnh tuy sẽ cảm thấy bản thân bị áp lực về tâm lí, nhưng cũng giống như người có Hóa Lộc, Hóa Quyền, Hóa Khoa tọa thủ cung mệnh, họ khá chủ quan (nhưng không nhất định sẽ biểu đạt ý chủ quan của mình), cũng sẽ có trạng thái tâm lí lợi ki; điều khác nhau duy nhất là, người có Hóa Kị ở cung mệnh sẽ "bi quan" hơn có "tam hóa" khác ở cung mệnh. Do Hóa Kị có tính biến động thay đổi khá lớn, lực tác động này xuất phát từ cung mệnh, sẽ khiến mệnh tạo trong giai đoạn đi học sẽ đến nơi khác ở, hoặc là vì nhu cầu công tác mà đi xa, cũng có khả năng di cư tha hương, ở nước ngoài; nhưng vì đặc tính của Hóa Kị là "gánh vác", "thu vào", do đó dù lúc trẻ phiêu bạt ở bên ngoài, cuối cùng cũng "lá rụng về cội".</t>
+  </si>
+  <si>
+    <t>Người có Hóa Kị tọa thủ cung mệnh còn có một đặc điểm khác, do bản thân có tâm tính trầm trọng, "thu vào", thường hay có cảm giác không an toàn, lại muốn trong một lúc gánh vác rất nhiều chuyện, do đó thường thường sẽ bức bách bản thân có tài năng trác việt, kì vọng bản thân sẽ dựa vào tài năng trác việt này mà được an thân, nhưng cũng do có tài năng trác việt này mà làm tăng thêm cơ hội "dịch động", đi xa.</t>
+  </si>
+  <si>
+    <t>Cung mệnh là cung vị phúc đức của cung phu thê, trường hợp cung mệnh thấy Hóa Kị, một khi quan hệ vợ chồng thành lập, là lúc cung vị phúc đức của người phối ngẫu chịu ảnh hưởng của Hóa Kị. Tức là, mệnh tạo sẽ chịu trách nhiệm về hạnh phúc của người yêu, sẽ gánh vác trách nhiệm làm cho người phối ngẫu vui vẻ, hạnh phúc. Cung mệnh có tính chất so sánh với cung lục thân khác, trường hợp cung mệnh có Hóa Kị, tương giao với cung khác, mệnh tạo sẽ không tự tin, về cách suy nghĩ cùng dễ thấy toàn màu xám, do đó sinh ra cảm giác sai lầm là không được cha thương, mẹ yêu; vì vậy đối với tình thân, tình yêu, tình bạn người này đều có lòng nghi ngờ.</t>
   </si>
 </sst>
 </file>
@@ -10504,8 +10522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:K2381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G307" sqref="G307"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13709,7 +13727,7 @@
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>1135</v>
       </c>
@@ -13719,7 +13737,7 @@
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>1134</v>
       </c>
@@ -13729,7 +13747,7 @@
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>1350</v>
       </c>
@@ -13751,8 +13769,11 @@
       <c r="G307" s="2" t="s">
         <v>3310</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H307" s="2" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>1132</v>
       </c>
@@ -13762,7 +13783,7 @@
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>876</v>
       </c>
@@ -13772,7 +13793,7 @@
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1133</v>
       </c>
@@ -13782,7 +13803,7 @@
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>878</v>
       </c>
@@ -13792,7 +13813,7 @@
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>863</v>
       </c>
@@ -13802,7 +13823,7 @@
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>865</v>
       </c>
@@ -13812,7 +13833,7 @@
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>879</v>
       </c>
@@ -13822,7 +13843,7 @@
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>880</v>
       </c>
@@ -13832,7 +13853,7 @@
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>862</v>
       </c>
@@ -13842,7 +13863,7 @@
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>866</v>
       </c>
@@ -13852,7 +13873,7 @@
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>867</v>
       </c>
@@ -13862,7 +13883,7 @@
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>870</v>
       </c>
@@ -13872,7 +13893,7 @@
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>869</v>
       </c>
@@ -13912,15 +13933,28 @@
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>1351</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>2847</v>
       </c>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
+      <c r="C324" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>3316</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
@@ -35505,7 +35539,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1722</v>
       </c>
@@ -35520,7 +35554,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1727</v>
       </c>
@@ -35550,7 +35584,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1721</v>
       </c>
